--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -14,39 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="322">
-  <si>
-    <t>#CrackYourInternship</t>
-  </si>
-  <si>
-    <t>DSA Sheet by Arsh - Updated 2023</t>
-  </si>
-  <si>
-    <t>#CrackYourPlacement</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Follow on Youtube : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155cc"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.youtube.com/c/arshgoyal</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="320">
+  <si>
+    <t/>
   </si>
   <si>
     <t>Status</t>
@@ -80,6 +50,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/move-zeroes/</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
@@ -1190,21 +1163,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
@@ -1215,6 +1188,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1238,7 +1214,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1572,15 +1554,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="23" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="23" width="64.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="26" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="26" width="64.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1589,7 +1571,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
@@ -1600,11 +1582,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
@@ -1629,29 +1611,29 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
@@ -1661,54 +1643,62 @@
       <c r="I5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2"/>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2"/>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2"/>
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1716,31 +1706,35 @@
       <c r="I8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2"/>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>16</v>
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="11" t="s">
-        <v>13</v>
+      <c r="E10" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1748,29 +1742,33 @@
       <c r="I10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2"/>
-      <c r="B11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="7"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
+      <c r="H11" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2"/>
-      <c r="B12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>19</v>
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
@@ -1780,12 +1778,14 @@
       <c r="I12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2"/>
-      <c r="B13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>20</v>
+      <c r="A13" s="9">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
@@ -1795,29 +1795,33 @@
       <c r="I13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>21</v>
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="11" t="s">
-        <v>13</v>
+      <c r="G14" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>23</v>
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
@@ -1827,114 +1831,128 @@
       <c r="I15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="11" t="s">
-        <v>13</v>
+      <c r="I16" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>25</v>
+      <c r="A17" s="9">
+        <v>12</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
+      <c r="F17" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>26</v>
+      <c r="A18" s="9">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="9"/>
+      <c r="E18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="10"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="2"/>
-      <c r="B19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>27</v>
+      <c r="A19" s="9">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
+      <c r="F19" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>28</v>
+      <c r="A20" s="9">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="11" t="s">
-        <v>13</v>
+      <c r="F20" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>29</v>
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="11" t="s">
-        <v>13</v>
+      <c r="I21" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="2"/>
-      <c r="B22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>30</v>
+      <c r="A22" s="9">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
@@ -1944,12 +1962,14 @@
       <c r="I22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>31</v>
+      <c r="A23" s="9">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
@@ -1959,12 +1979,14 @@
       <c r="I23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="2"/>
-      <c r="B24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>32</v>
+      <c r="A24" s="9">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
@@ -1974,12 +1996,14 @@
       <c r="I24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="2"/>
-      <c r="B25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>33</v>
+      <c r="A25" s="9">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
@@ -1989,12 +2013,14 @@
       <c r="I25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="2"/>
-      <c r="B26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>34</v>
+      <c r="A26" s="9">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
@@ -2004,80 +2030,90 @@
       <c r="I26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="2"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="9">
         <v>22</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>35</v>
+      <c r="B27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="11" t="s">
-        <v>13</v>
+      <c r="G27" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="2"/>
-      <c r="B28" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>36</v>
+      <c r="A28" s="9">
+        <v>23</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="11" t="s">
-        <v>13</v>
+      <c r="G28" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="2"/>
-      <c r="B29" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>37</v>
+      <c r="A29" s="9">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="11" t="s">
-        <v>13</v>
+      <c r="G29" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="2"/>
-      <c r="B30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>39</v>
+      <c r="A30" s="9">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="11" t="s">
-        <v>13</v>
+      <c r="G30" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="2"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="9">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
@@ -2087,12 +2123,14 @@
       <c r="I31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="2"/>
-      <c r="B32" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>41</v>
+      <c r="A32" s="9">
+        <v>27</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
@@ -2102,12 +2140,14 @@
       <c r="I32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="2"/>
-      <c r="B33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>39</v>
+      <c r="A33" s="9">
+        <v>28</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
@@ -2141,8 +2181,8 @@
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="2"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="9" t="s">
-        <v>42</v>
+      <c r="C36" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
@@ -2152,29 +2192,33 @@
       <c r="I36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="2"/>
-      <c r="B37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>43</v>
+      <c r="A37" s="9">
+        <v>1</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="11" t="s">
-        <v>13</v>
+      <c r="H37" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="2"/>
-      <c r="B38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>44</v>
+      <c r="A38" s="9">
+        <v>2</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
@@ -2184,29 +2228,33 @@
       <c r="I38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="2"/>
-      <c r="B39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>45</v>
+      <c r="A39" s="9">
+        <v>3</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="11" t="s">
-        <v>13</v>
+      <c r="H39" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="2"/>
-      <c r="B40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>46</v>
+      <c r="A40" s="9">
+        <v>4</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
@@ -2216,35 +2264,39 @@
       <c r="I40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="2"/>
-      <c r="B41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>47</v>
+      <c r="A41" s="9">
+        <v>5</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="11" t="s">
-        <v>13</v>
+      <c r="E41" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="11" t="s">
-        <v>13</v>
+      <c r="G41" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="2"/>
-      <c r="B42" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>49</v>
+      <c r="A42" s="9">
+        <v>6</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="11" t="s">
-        <v>13</v>
+      <c r="E42" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2252,33 +2304,37 @@
       <c r="I42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="2"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="9">
+        <v>7</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="13"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="11" t="s">
-        <v>13</v>
+      <c r="H43" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="2"/>
-      <c r="B44" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>51</v>
+      <c r="A44" s="9">
+        <v>8</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="11" t="s">
-        <v>13</v>
+      <c r="E44" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2286,16 +2342,18 @@
       <c r="I44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="2"/>
-      <c r="B45" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>52</v>
+      <c r="A45" s="9">
+        <v>9</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="13" t="s">
-        <v>13</v>
+      <c r="E45" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2303,16 +2361,18 @@
       <c r="I45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="2"/>
-      <c r="B46" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>53</v>
+      <c r="A46" s="9">
+        <v>10</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="11" t="s">
-        <v>13</v>
+      <c r="E46" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2320,29 +2380,33 @@
       <c r="I46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="2"/>
-      <c r="B47" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>54</v>
+      <c r="A47" s="9">
+        <v>11</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="11" t="s">
-        <v>13</v>
+      <c r="H47" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="2"/>
-      <c r="B48" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>55</v>
+      <c r="A48" s="9">
+        <v>12</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
@@ -2352,29 +2416,33 @@
       <c r="I48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="2"/>
-      <c r="B49" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>56</v>
+      <c r="A49" s="9">
+        <v>13</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="4"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="11" t="s">
-        <v>13</v>
+      <c r="H49" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="2"/>
-      <c r="B50" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>57</v>
+      <c r="A50" s="9">
+        <v>14</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="4"/>
@@ -2384,29 +2452,33 @@
       <c r="I50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="2"/>
-      <c r="B51" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>58</v>
+      <c r="A51" s="9">
+        <v>15</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="9" t="s">
-        <v>13</v>
+      <c r="F51" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="2"/>
-      <c r="B52" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>59</v>
+      <c r="A52" s="9">
+        <v>16</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="4"/>
@@ -2416,29 +2488,33 @@
       <c r="I52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="2"/>
-      <c r="B53" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>60</v>
+      <c r="A53" s="9">
+        <v>17</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="4"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="11" t="s">
-        <v>13</v>
+      <c r="H53" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="2"/>
-      <c r="B54" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>61</v>
+      <c r="A54" s="9">
+        <v>18</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="4"/>
@@ -2448,29 +2524,33 @@
       <c r="I54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="2"/>
-      <c r="B55" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>62</v>
+      <c r="A55" s="9">
+        <v>19</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="11" t="s">
-        <v>13</v>
+      <c r="F55" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="2"/>
-      <c r="B56" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>63</v>
+      <c r="A56" s="9">
+        <v>20</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="4"/>
@@ -2494,7 +2574,7 @@
       <c r="A58" s="2"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="4"/>
@@ -2504,12 +2584,14 @@
       <c r="I58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="2"/>
-      <c r="B59" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>65</v>
+      <c r="A59" s="9">
+        <v>1</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="4"/>
@@ -2519,12 +2601,14 @@
       <c r="I59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="2"/>
-      <c r="B60" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>66</v>
+      <c r="A60" s="9">
+        <v>2</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="4"/>
@@ -2534,51 +2618,57 @@
       <c r="I60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="2"/>
-      <c r="B61" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>67</v>
+      <c r="A61" s="9">
+        <v>3</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="4"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="2"/>
-      <c r="B62" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>30</v>
+      <c r="A62" s="9">
+        <v>4</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="9" t="s">
-        <v>13</v>
+      <c r="H62" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="2"/>
-      <c r="B63" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>68</v>
+      <c r="A63" s="9">
+        <v>5</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="4"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="11" t="s">
-        <v>13</v>
+      <c r="H63" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -2590,16 +2680,16 @@
       <c r="E64" s="4"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="9" t="s">
-        <v>13</v>
+      <c r="H64" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="2"/>
       <c r="B65" s="7"/>
-      <c r="C65" s="9" t="s">
-        <v>69</v>
+      <c r="C65" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="4"/>
@@ -2609,12 +2699,14 @@
       <c r="I65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="2"/>
-      <c r="B66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>70</v>
+      <c r="A66" s="9">
+        <v>1</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="4"/>
@@ -2624,12 +2716,14 @@
       <c r="I66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="2"/>
-      <c r="B67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>71</v>
+      <c r="A67" s="9">
+        <v>2</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="4"/>
@@ -2639,12 +2733,14 @@
       <c r="I67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="2"/>
-      <c r="B68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>72</v>
+      <c r="A68" s="9">
+        <v>3</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="4"/>
@@ -2654,12 +2750,14 @@
       <c r="I68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="2"/>
-      <c r="B69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>73</v>
+      <c r="A69" s="9">
+        <v>4</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="4"/>
@@ -2669,29 +2767,33 @@
       <c r="I69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="2"/>
-      <c r="B70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>74</v>
+      <c r="A70" s="9">
+        <v>5</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="2"/>
-      <c r="B71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>75</v>
+      <c r="A71" s="9">
+        <v>6</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="4"/>
@@ -2701,16 +2803,18 @@
       <c r="I71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="2"/>
-      <c r="B72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>76</v>
+      <c r="A72" s="9">
+        <v>7</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="11" t="s">
-        <v>13</v>
+      <c r="E72" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -2718,12 +2822,14 @@
       <c r="I72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="2"/>
-      <c r="B73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>77</v>
+      <c r="A73" s="9">
+        <v>8</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="4"/>
@@ -2733,12 +2839,14 @@
       <c r="I73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="2"/>
-      <c r="B74" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>78</v>
+      <c r="A74" s="9">
+        <v>9</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="4"/>
@@ -2748,12 +2856,14 @@
       <c r="I74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="2"/>
-      <c r="B75" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>79</v>
+      <c r="A75" s="9">
+        <v>10</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="4"/>
@@ -2763,29 +2873,33 @@
       <c r="I75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="2"/>
-      <c r="B76" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>80</v>
+      <c r="A76" s="9">
+        <v>11</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="4"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="11" t="s">
-        <v>13</v>
+      <c r="H76" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="2"/>
-      <c r="B77" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>81</v>
+      <c r="A77" s="9">
+        <v>12</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="4"/>
@@ -2808,42 +2922,46 @@
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2"/>
       <c r="B79" s="7"/>
-      <c r="C79" s="9" t="s">
-        <v>82</v>
+      <c r="C79" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="4"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="11" t="s">
-        <v>13</v>
+      <c r="I79" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="2"/>
-      <c r="B80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>83</v>
+      <c r="A80" s="9">
+        <v>1</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="11" t="s">
-        <v>13</v>
+      <c r="G80" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="2"/>
-      <c r="B81" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>84</v>
+      <c r="A81" s="9">
+        <v>2</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="4"/>
@@ -2853,31 +2971,35 @@
       <c r="I81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="2"/>
-      <c r="B82" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>85</v>
+      <c r="A82" s="9">
+        <v>3</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="11" t="s">
-        <v>13</v>
+      <c r="F82" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G82" s="2"/>
-      <c r="H82" s="11" t="s">
-        <v>13</v>
+      <c r="H82" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="2"/>
-      <c r="B83" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>83</v>
+      <c r="A83" s="9">
+        <v>4</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="4"/>
@@ -2887,12 +3009,14 @@
       <c r="I83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="2"/>
-      <c r="B84" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>86</v>
+      <c r="A84" s="9">
+        <v>5</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="4"/>
@@ -2902,16 +3026,18 @@
       <c r="I84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="2"/>
-      <c r="B85" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>87</v>
+      <c r="A85" s="9">
+        <v>6</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -2919,12 +3045,14 @@
       <c r="I85" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="2"/>
-      <c r="B86" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>88</v>
+      <c r="A86" s="9">
+        <v>7</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="4"/>
@@ -2934,29 +3062,33 @@
       <c r="I86" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="2"/>
-      <c r="B87" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>89</v>
+      <c r="A87" s="9">
+        <v>8</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="4"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="9" t="s">
-        <v>13</v>
+      <c r="I87" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="2"/>
-      <c r="B88" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>90</v>
+      <c r="A88" s="9">
+        <v>9</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="4"/>
@@ -2966,29 +3098,33 @@
       <c r="I88" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="2"/>
-      <c r="B89" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>91</v>
+      <c r="A89" s="9">
+        <v>10</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="4"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="11" t="s">
-        <v>13</v>
+      <c r="G89" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="2"/>
-      <c r="B90" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>92</v>
+      <c r="A90" s="9">
+        <v>11</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="4"/>
@@ -2998,46 +3134,52 @@
       <c r="I90" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="2"/>
-      <c r="B91" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>93</v>
+      <c r="A91" s="9">
+        <v>12</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="4"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="11" t="s">
+      <c r="I91" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="2"/>
-      <c r="B92" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>94</v>
+      <c r="B92" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="11" t="s">
-        <v>13</v>
+      <c r="H92" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I92" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="2"/>
-      <c r="B93" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>95</v>
+      <c r="A93" s="9">
+        <v>14</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="4"/>
@@ -3047,17 +3189,19 @@
       <c r="I93" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="2"/>
-      <c r="B94" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>96</v>
+      <c r="A94" s="9">
+        <v>15</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="11" t="s">
-        <v>13</v>
+      <c r="F94" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -3077,8 +3221,8 @@
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="2"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="1" t="s">
-        <v>97</v>
+      <c r="C96" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="4"/>
@@ -3088,12 +3232,14 @@
       <c r="I96" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="2"/>
-      <c r="B97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>98</v>
+      <c r="A97" s="9">
+        <v>1</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="4"/>
@@ -3103,16 +3249,18 @@
       <c r="I97" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="2"/>
-      <c r="B98" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>99</v>
+      <c r="A98" s="9">
+        <v>2</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D98" s="2"/>
-      <c r="E98" s="11" t="s">
-        <v>13</v>
+      <c r="E98" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -3120,29 +3268,33 @@
       <c r="I98" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="2"/>
-      <c r="B99" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>100</v>
+      <c r="A99" s="9">
+        <v>3</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="4"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
-      <c r="I99" s="11" t="s">
-        <v>13</v>
+      <c r="I99" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="2"/>
-      <c r="B100" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>101</v>
+      <c r="A100" s="9">
+        <v>4</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="4"/>
@@ -3152,12 +3304,14 @@
       <c r="I100" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="2"/>
-      <c r="B101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>102</v>
+      <c r="A101" s="9">
+        <v>5</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="4"/>
@@ -3167,80 +3321,90 @@
       <c r="I101" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="2"/>
-      <c r="B102" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>103</v>
+      <c r="A102" s="9">
+        <v>6</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="9" t="s">
-        <v>13</v>
+      <c r="H102" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I102" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="2"/>
-      <c r="B103" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>104</v>
+      <c r="A103" s="9">
+        <v>7</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="4"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>13</v>
+      <c r="H103" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="2"/>
-      <c r="B104" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>105</v>
+      <c r="A104" s="9">
+        <v>8</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="9"/>
+      <c r="H104" s="10"/>
       <c r="I104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="2"/>
-      <c r="B105" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>106</v>
+      <c r="A105" s="9">
+        <v>9</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="4"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="11" t="s">
-        <v>13</v>
+      <c r="H105" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I105" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="2"/>
-      <c r="B106" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>107</v>
+      <c r="A106" s="9">
+        <v>10</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="4"/>
@@ -3250,31 +3414,35 @@
       <c r="I106" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="2"/>
-      <c r="B107" s="9" t="s">
+      <c r="A107" s="9">
         <v>11</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>108</v>
+      <c r="B107" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="4"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>13</v>
+      <c r="H107" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="2"/>
-      <c r="B108" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>109</v>
+      <c r="A108" s="9">
+        <v>12</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="4"/>
@@ -3284,12 +3452,14 @@
       <c r="I108" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="2"/>
-      <c r="B109" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>110</v>
+      <c r="A109" s="9">
+        <v>13</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="4"/>
@@ -3299,29 +3469,33 @@
       <c r="I109" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="2"/>
-      <c r="B110" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>111</v>
+      <c r="A110" s="9">
+        <v>14</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="9" t="s">
-        <v>13</v>
+      <c r="F110" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="2"/>
-      <c r="B111" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>112</v>
+      <c r="A111" s="9">
+        <v>15</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="4"/>
@@ -3331,12 +3505,14 @@
       <c r="I111" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="2"/>
-      <c r="B112" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>113</v>
+      <c r="A112" s="9">
+        <v>16</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="4"/>
@@ -3346,46 +3522,52 @@
       <c r="I112" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="2"/>
-      <c r="B113" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>114</v>
+      <c r="A113" s="9">
+        <v>17</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="4"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
-      <c r="I113" s="9" t="s">
-        <v>13</v>
+      <c r="I113" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="2"/>
-      <c r="B114" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>115</v>
+      <c r="A114" s="9">
+        <v>18</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="4"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="9" t="s">
-        <v>13</v>
+      <c r="H114" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I114" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="2"/>
-      <c r="B115" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>116</v>
+      <c r="A115" s="9">
+        <v>19</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="4"/>
@@ -3395,12 +3577,14 @@
       <c r="I115" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="2"/>
-      <c r="B116" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>117</v>
+      <c r="A116" s="9">
+        <v>20</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="4"/>
@@ -3410,12 +3594,14 @@
       <c r="I116" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="2"/>
-      <c r="B117" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>118</v>
+      <c r="A117" s="9">
+        <v>21</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="4"/>
@@ -3425,12 +3611,14 @@
       <c r="I117" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="2"/>
-      <c r="B118" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>119</v>
+      <c r="A118" s="9">
+        <v>22</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="4"/>
@@ -3440,46 +3628,52 @@
       <c r="I118" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="2"/>
-      <c r="B119" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>120</v>
+      <c r="A119" s="9">
+        <v>23</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="9" t="s">
-        <v>13</v>
+      <c r="F119" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="2"/>
-      <c r="B120" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>121</v>
+      <c r="A120" s="9">
+        <v>24</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="4"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
-      <c r="I120" s="9" t="s">
-        <v>13</v>
+      <c r="I120" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="2"/>
-      <c r="B121" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>122</v>
+      <c r="A121" s="9">
+        <v>25</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="4"/>
@@ -3489,12 +3683,14 @@
       <c r="I121" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="2"/>
-      <c r="B122" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>123</v>
+      <c r="A122" s="9">
+        <v>26</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="4"/>
@@ -3517,8 +3713,8 @@
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="16" t="s">
-        <v>124</v>
+      <c r="C124" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="4"/>
@@ -3528,12 +3724,14 @@
       <c r="I124" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="2"/>
-      <c r="B125" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>125</v>
+      <c r="A125" s="9">
+        <v>1</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="4"/>
@@ -3543,16 +3741,18 @@
       <c r="I125" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="2"/>
-      <c r="B126" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>126</v>
+      <c r="A126" s="9">
+        <v>2</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="D126" s="2"/>
-      <c r="E126" s="9" t="s">
-        <v>13</v>
+      <c r="E126" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -3560,31 +3760,35 @@
       <c r="I126" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="2"/>
-      <c r="B127" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>127</v>
+      <c r="A127" s="9">
+        <v>3</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="4"/>
       <c r="F127" s="2"/>
-      <c r="G127" s="9" t="s">
-        <v>13</v>
+      <c r="G127" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H127" s="2"/>
-      <c r="I127" s="9" t="s">
-        <v>13</v>
+      <c r="I127" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="2"/>
-      <c r="B128" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>128</v>
+      <c r="A128" s="9">
+        <v>4</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="4"/>
@@ -3594,29 +3798,33 @@
       <c r="I128" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="2"/>
-      <c r="B129" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>129</v>
+      <c r="A129" s="9">
+        <v>5</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="4"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-      <c r="H129" s="9" t="s">
-        <v>13</v>
+      <c r="H129" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I129" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="2"/>
-      <c r="B130" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>130</v>
+      <c r="A130" s="9">
+        <v>6</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="4"/>
@@ -3626,12 +3834,14 @@
       <c r="I130" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="2"/>
-      <c r="B131" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>131</v>
+      <c r="A131" s="9">
+        <v>7</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="4"/>
@@ -3641,33 +3851,37 @@
       <c r="I131" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="2"/>
-      <c r="B132" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>132</v>
+      <c r="A132" s="9">
+        <v>8</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="4"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
-      <c r="I132" s="9" t="s">
-        <v>13</v>
+      <c r="I132" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="2"/>
-      <c r="B133" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>133</v>
+      <c r="A133" s="9">
+        <v>9</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="D133" s="2"/>
-      <c r="E133" s="9" t="s">
-        <v>13</v>
+      <c r="E133" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3675,46 +3889,52 @@
       <c r="I133" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="2"/>
-      <c r="B134" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>134</v>
+      <c r="A134" s="9">
+        <v>10</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="4"/>
       <c r="F134" s="2"/>
-      <c r="G134" s="9" t="s">
-        <v>13</v>
+      <c r="G134" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="2"/>
-      <c r="B135" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>135</v>
+      <c r="A135" s="9">
+        <v>11</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="4"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
-      <c r="H135" s="9" t="s">
-        <v>13</v>
+      <c r="H135" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I135" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="2"/>
-      <c r="B136" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>136</v>
+      <c r="A136" s="9">
+        <v>12</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="4"/>
@@ -3724,16 +3944,18 @@
       <c r="I136" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
-      <c r="A137" s="2"/>
-      <c r="B137" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>137</v>
+      <c r="A137" s="9">
+        <v>13</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="D137" s="2"/>
-      <c r="E137" s="9" t="s">
-        <v>13</v>
+      <c r="E137" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -3741,12 +3963,14 @@
       <c r="I137" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
-      <c r="A138" s="2"/>
-      <c r="B138" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>138</v>
+      <c r="A138" s="9">
+        <v>14</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="4"/>
@@ -3756,48 +3980,54 @@
       <c r="I138" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
-      <c r="A139" s="2"/>
-      <c r="B139" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>139</v>
+      <c r="A139" s="9">
+        <v>15</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="4"/>
       <c r="F139" s="2"/>
-      <c r="G139" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>13</v>
+      <c r="G139" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I139" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
-      <c r="A140" s="2"/>
-      <c r="B140" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>140</v>
+      <c r="A140" s="9">
+        <v>16</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="4"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
-      <c r="I140" s="9" t="s">
-        <v>13</v>
+      <c r="I140" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
-      <c r="A141" s="2"/>
-      <c r="B141" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C141" s="18" t="s">
-        <v>141</v>
+      <c r="A141" s="9">
+        <v>17</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="4"/>
@@ -3813,8 +4043,8 @@
       <c r="D142" s="2"/>
       <c r="E142" s="4"/>
       <c r="F142" s="2"/>
-      <c r="G142" s="9" t="s">
-        <v>13</v>
+      <c r="G142" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -3822,8 +4052,8 @@
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="2"/>
       <c r="B143" s="7"/>
-      <c r="C143" s="19" t="s">
-        <v>142</v>
+      <c r="C143" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="4"/>
@@ -3833,12 +4063,14 @@
       <c r="I143" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="2"/>
-      <c r="B144" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>143</v>
+      <c r="A144" s="9">
+        <v>1</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="4"/>
@@ -3848,82 +4080,92 @@
       <c r="I144" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="2"/>
-      <c r="B145" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>144</v>
+      <c r="A145" s="9">
+        <v>2</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="4"/>
-      <c r="F145" s="9" t="s">
-        <v>13</v>
+      <c r="F145" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="2"/>
-      <c r="B146" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>145</v>
+      <c r="A146" s="9">
+        <v>3</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="9" t="s">
-        <v>13</v>
+      <c r="F146" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
-      <c r="I146" s="9" t="s">
-        <v>13</v>
+      <c r="I146" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="2"/>
-      <c r="B147" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>146</v>
+      <c r="A147" s="9">
+        <v>4</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="9"/>
+      <c r="F147" s="10"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="2"/>
-      <c r="B148" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>13</v>
+      <c r="A148" s="9">
+        <v>5</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E148" s="4"/>
-      <c r="F148" s="9" t="s">
-        <v>13</v>
+      <c r="F148" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="2"/>
-      <c r="B149" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>148</v>
+      <c r="A149" s="9">
+        <v>6</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="4"/>
@@ -3933,12 +4175,14 @@
       <c r="I149" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="2"/>
-      <c r="B150" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>149</v>
+      <c r="A150" s="9">
+        <v>7</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="4"/>
@@ -3948,12 +4192,14 @@
       <c r="I150" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="2"/>
-      <c r="B151" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>150</v>
+      <c r="A151" s="9">
+        <v>8</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="4"/>
@@ -3963,31 +4209,35 @@
       <c r="I151" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="2"/>
-      <c r="B152" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>151</v>
+      <c r="A152" s="9">
+        <v>9</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="4"/>
       <c r="F152" s="2"/>
       <c r="G152" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H152" s="2"/>
-      <c r="I152" s="9" t="s">
-        <v>13</v>
+      <c r="I152" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
-      <c r="A153" s="2"/>
-      <c r="B153" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>152</v>
+      <c r="A153" s="9">
+        <v>10</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="4"/>
@@ -3997,15 +4247,17 @@
       <c r="I153" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="2"/>
-      <c r="B154" s="9" t="s">
+      <c r="A154" s="9">
         <v>11</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>13</v>
+      <c r="B154" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="2"/>
@@ -4014,12 +4266,14 @@
       <c r="I154" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="2"/>
-      <c r="B155" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>154</v>
+      <c r="A155" s="9">
+        <v>12</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="4"/>
@@ -4029,12 +4283,14 @@
       <c r="I155" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
-      <c r="A156" s="2"/>
-      <c r="B156" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>155</v>
+      <c r="A156" s="9">
+        <v>13</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="4"/>
@@ -4044,48 +4300,54 @@
       <c r="I156" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="2"/>
-      <c r="B157" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>156</v>
+      <c r="A157" s="9">
+        <v>14</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="4"/>
       <c r="F157" s="2"/>
-      <c r="G157" s="9" t="s">
-        <v>13</v>
+      <c r="G157" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H157" s="2"/>
-      <c r="I157" s="9" t="s">
-        <v>13</v>
+      <c r="I157" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
-      <c r="A158" s="2"/>
-      <c r="B158" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>157</v>
+      <c r="A158" s="9">
+        <v>15</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="4"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
-      <c r="I158" s="9" t="s">
-        <v>13</v>
+      <c r="I158" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
-      <c r="A159" s="2"/>
-      <c r="B159" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>158</v>
+      <c r="A159" s="9">
+        <v>16</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="4"/>
@@ -4095,12 +4357,14 @@
       <c r="I159" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
-      <c r="A160" s="2"/>
-      <c r="B160" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>159</v>
+      <c r="A160" s="9">
+        <v>17</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="4"/>
@@ -4110,12 +4374,14 @@
       <c r="I160" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
-      <c r="A161" s="2"/>
-      <c r="B161" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>160</v>
+      <c r="A161" s="9">
+        <v>18</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="4"/>
@@ -4125,12 +4391,14 @@
       <c r="I161" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
-      <c r="A162" s="2"/>
-      <c r="B162" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>161</v>
+      <c r="A162" s="9">
+        <v>19</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="4"/>
@@ -4140,12 +4408,14 @@
       <c r="I162" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
-      <c r="A163" s="2"/>
-      <c r="B163" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>162</v>
+      <c r="A163" s="9">
+        <v>20</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="4"/>
@@ -4155,12 +4425,14 @@
       <c r="I163" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
-      <c r="A164" s="2"/>
-      <c r="B164" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>163</v>
+      <c r="A164" s="9">
+        <v>21</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="4"/>
@@ -4170,12 +4442,14 @@
       <c r="I164" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
-      <c r="A165" s="2"/>
-      <c r="B165" s="9" t="s">
+      <c r="A165" s="9">
         <v>22</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>164</v>
+      <c r="B165" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="4"/>
@@ -4183,20 +4457,22 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
-      <c r="A166" s="2"/>
-      <c r="B166" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>165</v>
+      <c r="A166" s="9">
+        <v>23</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="D166" s="2"/>
-      <c r="E166" s="9" t="s">
-        <v>13</v>
+      <c r="E166" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -4204,12 +4480,14 @@
       <c r="I166" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
-      <c r="A167" s="2"/>
-      <c r="B167" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>166</v>
+      <c r="A167" s="9">
+        <v>24</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="4"/>
@@ -4219,12 +4497,14 @@
       <c r="I167" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
-      <c r="A168" s="2"/>
-      <c r="B168" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>167</v>
+      <c r="A168" s="9">
+        <v>25</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="4"/>
@@ -4234,12 +4514,14 @@
       <c r="I168" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
-      <c r="A169" s="2"/>
-      <c r="B169" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>168</v>
+      <c r="A169" s="9">
+        <v>26</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="4"/>
@@ -4249,107 +4531,119 @@
       <c r="I169" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
-      <c r="A170" s="2"/>
-      <c r="B170" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>169</v>
+      <c r="A170" s="9">
+        <v>27</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="4"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
-      <c r="I170" s="9" t="s">
-        <v>13</v>
+      <c r="I170" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
-      <c r="A171" s="2"/>
-      <c r="B171" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>170</v>
+      <c r="A171" s="9">
+        <v>28</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="4"/>
-      <c r="F171" s="9" t="s">
-        <v>13</v>
+      <c r="F171" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G171" s="2"/>
-      <c r="H171" s="9" t="s">
-        <v>13</v>
+      <c r="H171" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I171" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
-      <c r="A172" s="2"/>
-      <c r="B172" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>171</v>
+      <c r="A172" s="9">
+        <v>29</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="D172" s="2"/>
-      <c r="E172" s="9" t="s">
-        <v>13</v>
+      <c r="E172" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
-      <c r="H172" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I172" s="9" t="s">
-        <v>13</v>
+      <c r="H172" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I172" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
-      <c r="A173" s="2"/>
-      <c r="B173" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>172</v>
+      <c r="A173" s="9">
+        <v>30</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="4"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-      <c r="H173" s="9" t="s">
-        <v>13</v>
+      <c r="H173" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I173" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
-      <c r="A174" s="2"/>
-      <c r="B174" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>173</v>
+      <c r="A174" s="9">
+        <v>31</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="4"/>
       <c r="F174" s="2"/>
-      <c r="G174" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I174" s="9" t="s">
-        <v>13</v>
+      <c r="G174" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H174" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I174" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
-      <c r="A175" s="2"/>
-      <c r="B175" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>174</v>
+      <c r="A175" s="9">
+        <v>32</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="4"/>
@@ -4359,12 +4653,14 @@
       <c r="I175" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
-      <c r="A176" s="2"/>
-      <c r="B176" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>175</v>
+      <c r="A176" s="9">
+        <v>33</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="4"/>
@@ -4374,33 +4670,37 @@
       <c r="I176" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
-      <c r="A177" s="2"/>
-      <c r="B177" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>176</v>
+      <c r="A177" s="9">
+        <v>34</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="4"/>
-      <c r="F177" s="9" t="s">
-        <v>13</v>
+      <c r="F177" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
-      <c r="A178" s="2"/>
-      <c r="B178" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>177</v>
+      <c r="A178" s="9">
+        <v>35</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="D178" s="2"/>
-      <c r="E178" s="9" t="s">
-        <v>13</v>
+      <c r="E178" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -4408,29 +4708,33 @@
       <c r="I178" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
-      <c r="A179" s="2"/>
-      <c r="B179" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>178</v>
+      <c r="A179" s="9">
+        <v>36</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="4"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
-      <c r="H179" s="9" t="s">
-        <v>13</v>
+      <c r="H179" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I179" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
-      <c r="A180" s="2"/>
-      <c r="B180" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>179</v>
+      <c r="A180" s="9">
+        <v>37</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="4"/>
@@ -4440,31 +4744,35 @@
       <c r="I180" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
-      <c r="A181" s="2"/>
-      <c r="B181" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>180</v>
+      <c r="A181" s="9">
+        <v>38</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="4"/>
-      <c r="F181" s="9" t="s">
-        <v>13</v>
+      <c r="F181" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
-      <c r="I181" s="9" t="s">
-        <v>13</v>
+      <c r="I181" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
-      <c r="A182" s="2"/>
-      <c r="B182" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>181</v>
+      <c r="A182" s="9">
+        <v>39</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="4"/>
@@ -4474,116 +4782,130 @@
       <c r="I182" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
-      <c r="A183" s="2"/>
-      <c r="B183" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>182</v>
+      <c r="A183" s="9">
+        <v>40</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="4"/>
       <c r="F183" s="2"/>
-      <c r="G183" s="9" t="s">
-        <v>13</v>
+      <c r="G183" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
-      <c r="A184" s="2"/>
-      <c r="B184" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>183</v>
+      <c r="A184" s="9">
+        <v>41</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="4"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
-      <c r="H184" s="9" t="s">
-        <v>13</v>
+      <c r="H184" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I184" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
-      <c r="A185" s="2"/>
-      <c r="B185" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>184</v>
+      <c r="A185" s="9">
+        <v>42</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="4"/>
-      <c r="F185" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G185" s="9" t="s">
-        <v>13</v>
+      <c r="F185" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
-      <c r="A186" s="2"/>
-      <c r="B186" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>185</v>
+      <c r="A186" s="9">
+        <v>43</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="4"/>
-      <c r="F186" s="9" t="s">
-        <v>13</v>
+      <c r="F186" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
-      <c r="A187" s="2"/>
-      <c r="B187" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>186</v>
+      <c r="A187" s="9">
+        <v>44</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="4"/>
-      <c r="F187" s="9" t="s">
-        <v>13</v>
+      <c r="F187" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
-      <c r="A188" s="2"/>
-      <c r="B188" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>187</v>
+      <c r="A188" s="9">
+        <v>45</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="4"/>
-      <c r="F188" s="9" t="s">
-        <v>13</v>
+      <c r="F188" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
-      <c r="A189" s="2"/>
-      <c r="B189" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>188</v>
+      <c r="A189" s="9">
+        <v>46</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="4"/>
@@ -4593,29 +4915,33 @@
       <c r="I189" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
-      <c r="A190" s="2"/>
-      <c r="B190" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>189</v>
+      <c r="A190" s="9">
+        <v>47</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="4"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
-      <c r="I190" s="9" t="s">
-        <v>13</v>
+      <c r="I190" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
-      <c r="A191" s="2"/>
-      <c r="B191" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>190</v>
+      <c r="A191" s="9">
+        <v>48</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="4"/>
@@ -4638,8 +4964,8 @@
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="2"/>
       <c r="B193" s="7"/>
-      <c r="C193" s="9" t="s">
-        <v>191</v>
+      <c r="C193" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="4"/>
@@ -4649,33 +4975,37 @@
       <c r="I193" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
-      <c r="A194" s="2"/>
-      <c r="B194" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>192</v>
+      <c r="A194" s="9">
+        <v>1</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="4"/>
       <c r="F194" s="2"/>
-      <c r="G194" s="9" t="s">
-        <v>13</v>
+      <c r="G194" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
-      <c r="A195" s="2"/>
-      <c r="B195" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>193</v>
+      <c r="A195" s="9">
+        <v>2</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="D195" s="2"/>
-      <c r="E195" s="9" t="s">
-        <v>13</v>
+      <c r="E195" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -4683,12 +5013,14 @@
       <c r="I195" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
-      <c r="A196" s="2"/>
-      <c r="B196" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>194</v>
+      <c r="A196" s="9">
+        <v>3</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="4"/>
@@ -4698,29 +5030,33 @@
       <c r="I196" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
-      <c r="A197" s="2"/>
-      <c r="B197" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>195</v>
+      <c r="A197" s="9">
+        <v>4</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="4"/>
       <c r="F197" s="2"/>
-      <c r="G197" s="9" t="s">
-        <v>13</v>
+      <c r="G197" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
-      <c r="A198" s="2"/>
-      <c r="B198" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>196</v>
+      <c r="A198" s="9">
+        <v>5</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="4"/>
@@ -4730,12 +5066,14 @@
       <c r="I198" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
-      <c r="A199" s="2"/>
-      <c r="B199" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>197</v>
+      <c r="A199" s="9">
+        <v>6</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="4"/>
@@ -4745,12 +5083,14 @@
       <c r="I199" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
-      <c r="A200" s="2"/>
-      <c r="B200" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>198</v>
+      <c r="A200" s="9">
+        <v>7</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="4"/>
@@ -4760,16 +5100,18 @@
       <c r="I200" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
-      <c r="A201" s="2"/>
-      <c r="B201" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>199</v>
+      <c r="A201" s="9">
+        <v>8</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="D201" s="2"/>
-      <c r="E201" s="9" t="s">
-        <v>13</v>
+      <c r="E201" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
@@ -4777,16 +5119,18 @@
       <c r="I201" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
-      <c r="A202" s="2"/>
-      <c r="B202" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>200</v>
+      <c r="A202" s="9">
+        <v>9</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="D202" s="2"/>
-      <c r="E202" s="9" t="s">
-        <v>13</v>
+      <c r="E202" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -4794,16 +5138,18 @@
       <c r="I202" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
-      <c r="A203" s="2"/>
-      <c r="B203" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>201</v>
+      <c r="A203" s="9">
+        <v>10</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="D203" s="2"/>
-      <c r="E203" s="9" t="s">
-        <v>13</v>
+      <c r="E203" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
@@ -4811,31 +5157,35 @@
       <c r="I203" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
-      <c r="A204" s="2"/>
-      <c r="B204" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>202</v>
+      <c r="A204" s="9">
+        <v>11</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="D204" s="2"/>
-      <c r="E204" s="9" t="s">
-        <v>13</v>
+      <c r="E204" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F204" s="2"/>
-      <c r="G204" s="9" t="s">
-        <v>13</v>
+      <c r="G204" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
-      <c r="A205" s="2"/>
-      <c r="B205" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>203</v>
+      <c r="A205" s="9">
+        <v>12</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="4"/>
@@ -4845,12 +5195,14 @@
       <c r="I205" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
-      <c r="A206" s="2"/>
-      <c r="B206" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>204</v>
+      <c r="A206" s="9">
+        <v>13</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="4"/>
@@ -4860,16 +5212,18 @@
       <c r="I206" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
-      <c r="A207" s="2"/>
-      <c r="B207" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>205</v>
+      <c r="A207" s="9">
+        <v>14</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="D207" s="2"/>
-      <c r="E207" s="9" t="s">
-        <v>13</v>
+      <c r="E207" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
@@ -4877,12 +5231,14 @@
       <c r="I207" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
-      <c r="A208" s="2"/>
-      <c r="B208" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>206</v>
+      <c r="A208" s="9">
+        <v>15</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="4"/>
@@ -4892,12 +5248,14 @@
       <c r="I208" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
-      <c r="A209" s="2"/>
-      <c r="B209" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>207</v>
+      <c r="A209" s="9">
+        <v>16</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="4"/>
@@ -4907,12 +5265,14 @@
       <c r="I209" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
-      <c r="A210" s="2"/>
-      <c r="B210" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>208</v>
+      <c r="A210" s="9">
+        <v>17</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="4"/>
@@ -4922,12 +5282,14 @@
       <c r="I210" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
-      <c r="A211" s="2"/>
-      <c r="B211" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>209</v>
+      <c r="A211" s="9">
+        <v>18</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="4"/>
@@ -4937,12 +5299,14 @@
       <c r="I211" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
-      <c r="A212" s="2"/>
-      <c r="B212" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>210</v>
+      <c r="A212" s="9">
+        <v>19</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="4"/>
@@ -4952,29 +5316,33 @@
       <c r="I212" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
-      <c r="A213" s="2"/>
-      <c r="B213" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>211</v>
+      <c r="A213" s="9">
+        <v>20</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="4"/>
       <c r="F213" s="2"/>
-      <c r="G213" s="9" t="s">
-        <v>13</v>
+      <c r="G213" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
-      <c r="A214" s="2"/>
-      <c r="B214" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>212</v>
+      <c r="A214" s="9">
+        <v>21</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="4"/>
@@ -4984,12 +5352,14 @@
       <c r="I214" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
-      <c r="A215" s="2"/>
-      <c r="B215" s="9" t="s">
+      <c r="A215" s="9">
         <v>22</v>
       </c>
-      <c r="C215" s="10" t="s">
-        <v>213</v>
+      <c r="B215" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="4"/>
@@ -4999,12 +5369,14 @@
       <c r="I215" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
-      <c r="A216" s="2"/>
-      <c r="B216" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>214</v>
+      <c r="A216" s="9">
+        <v>23</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="4"/>
@@ -5014,48 +5386,54 @@
       <c r="I216" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
-      <c r="A217" s="2"/>
-      <c r="B217" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>215</v>
+      <c r="A217" s="9">
+        <v>24</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>213</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="4"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
-      <c r="I217" s="9" t="s">
-        <v>13</v>
+      <c r="I217" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
-      <c r="A218" s="2"/>
-      <c r="B218" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>216</v>
+      <c r="A218" s="9">
+        <v>25</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="4"/>
-      <c r="F218" s="9" t="s">
-        <v>13</v>
+      <c r="F218" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G218" s="2"/>
-      <c r="H218" s="9" t="s">
-        <v>13</v>
+      <c r="H218" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I218" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
-      <c r="A219" s="2"/>
-      <c r="B219" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>217</v>
+      <c r="A219" s="9">
+        <v>26</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="4"/>
@@ -5065,12 +5443,14 @@
       <c r="I219" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
-      <c r="A220" s="2"/>
-      <c r="B220" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>218</v>
+      <c r="A220" s="9">
+        <v>27</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="4"/>
@@ -5080,16 +5460,18 @@
       <c r="I220" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
-      <c r="A221" s="2"/>
-      <c r="B221" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>219</v>
+      <c r="A221" s="9">
+        <v>28</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="D221" s="2"/>
-      <c r="E221" s="9" t="s">
-        <v>13</v>
+      <c r="E221" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
@@ -5097,12 +5479,14 @@
       <c r="I221" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
-      <c r="A222" s="2"/>
-      <c r="B222" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>220</v>
+      <c r="A222" s="9">
+        <v>29</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="4"/>
@@ -5112,103 +5496,115 @@
       <c r="I222" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
-      <c r="A223" s="2"/>
-      <c r="B223" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>221</v>
+      <c r="A223" s="9">
+        <v>30</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="4"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
-      <c r="H223" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I223" s="9" t="s">
-        <v>13</v>
+      <c r="H223" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I223" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
-      <c r="A224" s="2"/>
-      <c r="B224" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>222</v>
+      <c r="A224" s="9">
+        <v>31</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>220</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="4"/>
       <c r="F224" s="2"/>
-      <c r="G224" s="9" t="s">
-        <v>13</v>
+      <c r="G224" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
-      <c r="A225" s="2"/>
-      <c r="B225" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>223</v>
+      <c r="A225" s="9">
+        <v>32</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="4"/>
       <c r="F225" s="2"/>
-      <c r="G225" s="9" t="s">
-        <v>13</v>
+      <c r="G225" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
-      <c r="A226" s="2"/>
-      <c r="B226" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>225</v>
+      <c r="A226" s="9">
+        <v>33</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="4"/>
       <c r="F226" s="2"/>
-      <c r="G226" s="9"/>
+      <c r="G226" s="10"/>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
-      <c r="A227" s="2"/>
-      <c r="B227" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>226</v>
+      <c r="A227" s="9">
+        <v>34</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>224</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="4"/>
       <c r="F227" s="2"/>
-      <c r="G227" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H227" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I227" s="9" t="s">
-        <v>13</v>
+      <c r="G227" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H227" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I227" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
-      <c r="A228" s="2"/>
-      <c r="B228" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>227</v>
+      <c r="A228" s="9">
+        <v>35</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="4"/>
@@ -5218,12 +5614,14 @@
       <c r="I228" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
-      <c r="A229" s="2"/>
-      <c r="B229" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>228</v>
+      <c r="A229" s="9">
+        <v>36</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="4"/>
@@ -5233,12 +5631,14 @@
       <c r="I229" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
-      <c r="A230" s="2"/>
-      <c r="B230" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>229</v>
+      <c r="A230" s="9">
+        <v>37</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="4"/>
@@ -5261,8 +5661,8 @@
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="2"/>
       <c r="B232" s="7"/>
-      <c r="C232" s="20" t="s">
-        <v>230</v>
+      <c r="C232" s="23" t="s">
+        <v>228</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="4"/>
@@ -5272,12 +5672,14 @@
       <c r="I232" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
-      <c r="A233" s="2"/>
-      <c r="B233" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>231</v>
+      <c r="A233" s="9">
+        <v>1</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="4"/>
@@ -5287,16 +5689,18 @@
       <c r="I233" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
-      <c r="A234" s="2"/>
-      <c r="B234" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>232</v>
+      <c r="A234" s="9">
+        <v>2</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="D234" s="2"/>
-      <c r="E234" s="9" t="s">
-        <v>13</v>
+      <c r="E234" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
@@ -5304,16 +5708,18 @@
       <c r="I234" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
-      <c r="A235" s="2"/>
-      <c r="B235" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>233</v>
+      <c r="A235" s="9">
+        <v>3</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="D235" s="2"/>
-      <c r="E235" s="9" t="s">
-        <v>13</v>
+      <c r="E235" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
@@ -5321,16 +5727,18 @@
       <c r="I235" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
-      <c r="A236" s="2"/>
-      <c r="B236" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>234</v>
+      <c r="A236" s="9">
+        <v>4</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="D236" s="2"/>
-      <c r="E236" s="9" t="s">
-        <v>13</v>
+      <c r="E236" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
@@ -5338,16 +5746,18 @@
       <c r="I236" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
-      <c r="A237" s="2"/>
-      <c r="B237" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>235</v>
+      <c r="A237" s="9">
+        <v>5</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="D237" s="2"/>
-      <c r="E237" s="9" t="s">
-        <v>13</v>
+      <c r="E237" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
@@ -5355,12 +5765,14 @@
       <c r="I237" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
-      <c r="A238" s="2"/>
-      <c r="B238" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>236</v>
+      <c r="A238" s="9">
+        <v>6</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="4"/>
@@ -5383,8 +5795,8 @@
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="2"/>
       <c r="B240" s="7"/>
-      <c r="C240" s="16" t="s">
-        <v>237</v>
+      <c r="C240" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="4"/>
@@ -5405,12 +5817,14 @@
       <c r="I241" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
-      <c r="A242" s="2"/>
-      <c r="B242" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>239</v>
+      <c r="A242" s="9">
+        <v>1</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="4"/>
@@ -5420,12 +5834,14 @@
       <c r="I242" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
-      <c r="A243" s="2"/>
-      <c r="B243" s="9" t="s">
+      <c r="A243" s="9">
+        <v>2</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C243" s="19" t="s">
         <v>238</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="4"/>
@@ -5435,12 +5851,14 @@
       <c r="I243" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
-      <c r="A244" s="2"/>
-      <c r="B244" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>241</v>
+      <c r="A244" s="9">
+        <v>3</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C244" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="4"/>
@@ -5450,12 +5868,14 @@
       <c r="I244" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
-      <c r="A245" s="2"/>
-      <c r="B245" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>242</v>
+      <c r="A245" s="9">
+        <v>4</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C245" s="19" t="s">
+        <v>240</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="4"/>
@@ -5465,12 +5885,14 @@
       <c r="I245" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
-      <c r="A246" s="2"/>
-      <c r="B246" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>243</v>
+      <c r="A246" s="9">
+        <v>5</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C246" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="4"/>
@@ -5480,12 +5902,14 @@
       <c r="I246" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
-      <c r="A247" s="2"/>
-      <c r="B247" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>244</v>
+      <c r="A247" s="9">
+        <v>6</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C247" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="4"/>
@@ -5495,12 +5919,14 @@
       <c r="I247" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
-      <c r="A248" s="2"/>
-      <c r="B248" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>245</v>
+      <c r="A248" s="9">
+        <v>7</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C248" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="4"/>
@@ -5510,12 +5936,14 @@
       <c r="I248" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
-      <c r="A249" s="2"/>
-      <c r="B249" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>246</v>
+      <c r="A249" s="9">
+        <v>8</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" s="4"/>
@@ -5525,29 +5953,33 @@
       <c r="I249" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
-      <c r="A250" s="2"/>
-      <c r="B250" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>247</v>
+      <c r="A250" s="9">
+        <v>9</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="4"/>
       <c r="F250" s="2"/>
-      <c r="G250" s="9" t="s">
-        <v>13</v>
+      <c r="G250" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
-      <c r="A251" s="2"/>
-      <c r="B251" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>248</v>
+      <c r="A251" s="9">
+        <v>10</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C251" s="19" t="s">
+        <v>246</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="4"/>
@@ -5557,12 +5989,14 @@
       <c r="I251" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
-      <c r="A252" s="2"/>
-      <c r="B252" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>249</v>
+      <c r="A252" s="9">
+        <v>11</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="4"/>
@@ -5572,16 +6006,18 @@
       <c r="I252" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
-      <c r="A253" s="2"/>
-      <c r="B253" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>250</v>
+      <c r="A253" s="9">
+        <v>12</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="D253" s="2"/>
-      <c r="E253" s="9" t="s">
-        <v>13</v>
+      <c r="E253" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
@@ -5589,12 +6025,14 @@
       <c r="I253" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
-      <c r="A254" s="2"/>
-      <c r="B254" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>251</v>
+      <c r="A254" s="9">
+        <v>13</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="4"/>
@@ -5604,12 +6042,14 @@
       <c r="I254" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
-      <c r="A255" s="2"/>
-      <c r="B255" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C255" s="10" t="s">
-        <v>252</v>
+      <c r="A255" s="9">
+        <v>14</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="4"/>
@@ -5632,8 +6072,8 @@
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="2"/>
       <c r="B257" s="7"/>
-      <c r="C257" s="20" t="s">
-        <v>253</v>
+      <c r="C257" s="23" t="s">
+        <v>251</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="4"/>
@@ -5643,12 +6083,14 @@
       <c r="I257" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
-      <c r="A258" s="2"/>
-      <c r="B258" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C258" s="10" t="s">
-        <v>254</v>
+      <c r="A258" s="9">
+        <v>1</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="4"/>
@@ -5658,63 +6100,71 @@
       <c r="I258" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
-      <c r="A259" s="2"/>
-      <c r="B259" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>255</v>
+      <c r="A259" s="9">
+        <v>2</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="4"/>
-      <c r="F259" s="9" t="s">
-        <v>13</v>
+      <c r="F259" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
-      <c r="A260" s="2"/>
-      <c r="B260" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>256</v>
+      <c r="A260" s="9">
+        <v>3</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="4"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
-      <c r="I260" s="9" t="s">
-        <v>13</v>
+      <c r="I260" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
-      <c r="A261" s="2"/>
-      <c r="B261" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C261" s="10" t="s">
-        <v>257</v>
+      <c r="A261" s="9">
+        <v>4</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="4"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
-      <c r="H261" s="9" t="s">
-        <v>13</v>
+      <c r="H261" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I261" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
-      <c r="A262" s="2"/>
-      <c r="B262" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>258</v>
+      <c r="A262" s="9">
+        <v>5</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C262" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="4"/>
@@ -5724,12 +6174,14 @@
       <c r="I262" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
-      <c r="A263" s="2"/>
-      <c r="B263" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C263" s="10" t="s">
-        <v>259</v>
+      <c r="A263" s="9">
+        <v>6</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="4"/>
@@ -5739,16 +6191,18 @@
       <c r="I263" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
-      <c r="A264" s="2"/>
-      <c r="B264" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>260</v>
+      <c r="A264" s="9">
+        <v>7</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C264" s="19" t="s">
+        <v>258</v>
       </c>
       <c r="D264" s="2"/>
-      <c r="E264" s="9" t="s">
-        <v>13</v>
+      <c r="E264" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
@@ -5756,16 +6210,18 @@
       <c r="I264" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
-      <c r="A265" s="2"/>
-      <c r="B265" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>261</v>
+      <c r="A265" s="9">
+        <v>8</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="D265" s="2"/>
-      <c r="E265" s="9" t="s">
-        <v>13</v>
+      <c r="E265" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
@@ -5773,114 +6229,128 @@
       <c r="I265" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
-      <c r="A266" s="2"/>
-      <c r="B266" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>262</v>
+      <c r="A266" s="9">
+        <v>9</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="D266" s="2"/>
-      <c r="E266" s="9"/>
+      <c r="E266" s="10"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
-      <c r="I266" s="9" t="s">
-        <v>13</v>
+      <c r="I266" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
-      <c r="A267" s="2"/>
-      <c r="B267" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C267" s="10" t="s">
-        <v>263</v>
+      <c r="A267" s="9">
+        <v>10</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="D267" s="2"/>
-      <c r="E267" s="9" t="s">
-        <v>13</v>
+      <c r="E267" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
-      <c r="H267" s="9" t="s">
-        <v>13</v>
+      <c r="H267" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I267" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
-      <c r="A268" s="2"/>
-      <c r="B268" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C268" s="10" t="s">
-        <v>264</v>
+      <c r="A268" s="9">
+        <v>11</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="4"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
-      <c r="H268" s="9" t="s">
-        <v>13</v>
+      <c r="H268" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I268" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
-      <c r="A269" s="2"/>
-      <c r="B269" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>265</v>
+      <c r="A269" s="9">
+        <v>12</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C269" s="19" t="s">
+        <v>263</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="4"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
-      <c r="H269" s="9"/>
+      <c r="H269" s="10"/>
       <c r="I269" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
-      <c r="A270" s="2"/>
-      <c r="B270" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>266</v>
+      <c r="A270" s="9">
+        <v>13</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="4"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
-      <c r="H270" s="9" t="s">
-        <v>13</v>
+      <c r="H270" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I270" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
-      <c r="A271" s="2"/>
-      <c r="B271" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>267</v>
+      <c r="A271" s="9">
+        <v>14</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C271" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="4"/>
-      <c r="F271" s="9" t="s">
-        <v>13</v>
+      <c r="F271" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
-      <c r="A272" s="2"/>
-      <c r="B272" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>268</v>
+      <c r="A272" s="9">
+        <v>15</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="4"/>
@@ -5890,12 +6360,14 @@
       <c r="I272" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
-      <c r="A273" s="2"/>
-      <c r="B273" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C273" s="10" t="s">
-        <v>269</v>
+      <c r="A273" s="9">
+        <v>16</v>
+      </c>
+      <c r="B273" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="4"/>
@@ -5905,12 +6377,14 @@
       <c r="I273" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
-      <c r="A274" s="2"/>
-      <c r="B274" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C274" s="10" t="s">
-        <v>270</v>
+      <c r="A274" s="9">
+        <v>17</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>268</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="4"/>
@@ -5920,12 +6394,14 @@
       <c r="I274" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
-      <c r="A275" s="2"/>
-      <c r="B275" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C275" s="10" t="s">
-        <v>271</v>
+      <c r="A275" s="9">
+        <v>18</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="4"/>
@@ -5935,29 +6411,33 @@
       <c r="I275" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
-      <c r="A276" s="2"/>
-      <c r="B276" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>272</v>
+      <c r="A276" s="9">
+        <v>19</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C276" s="19" t="s">
+        <v>270</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="4"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
-      <c r="H276" s="9" t="s">
-        <v>13</v>
+      <c r="H276" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I276" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
-      <c r="A277" s="2"/>
-      <c r="B277" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C277" s="10" t="s">
-        <v>273</v>
+      <c r="A277" s="9">
+        <v>20</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="4"/>
@@ -5967,12 +6447,14 @@
       <c r="I277" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
-      <c r="A278" s="2"/>
-      <c r="B278" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>274</v>
+      <c r="A278" s="9">
+        <v>21</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C278" s="19" t="s">
+        <v>272</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="4"/>
@@ -5982,29 +6464,33 @@
       <c r="I278" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
-      <c r="A279" s="2"/>
-      <c r="B279" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>275</v>
+      <c r="A279" s="9">
+        <v>22</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C279" s="19" t="s">
+        <v>273</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="4"/>
-      <c r="F279" s="9" t="s">
-        <v>13</v>
+      <c r="F279" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
-      <c r="A280" s="2"/>
-      <c r="B280" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>276</v>
+      <c r="A280" s="9">
+        <v>23</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C280" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="4"/>
@@ -6014,33 +6500,37 @@
       <c r="I280" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
-      <c r="A281" s="2"/>
-      <c r="B281" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C281" s="10" t="s">
-        <v>277</v>
+      <c r="A281" s="9">
+        <v>24</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="4"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
-      <c r="I281" s="9" t="s">
-        <v>13</v>
+      <c r="I281" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
-      <c r="A282" s="2"/>
-      <c r="B282" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C282" s="10" t="s">
-        <v>278</v>
+      <c r="A282" s="9">
+        <v>25</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>276</v>
       </c>
       <c r="D282" s="2"/>
-      <c r="E282" s="9" t="s">
-        <v>13</v>
+      <c r="E282" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
@@ -6048,16 +6538,18 @@
       <c r="I282" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
-      <c r="A283" s="2"/>
-      <c r="B283" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>279</v>
+      <c r="A283" s="9">
+        <v>26</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C283" s="19" t="s">
+        <v>277</v>
       </c>
       <c r="D283" s="2"/>
-      <c r="E283" s="9" t="s">
-        <v>13</v>
+      <c r="E283" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
@@ -6065,16 +6557,18 @@
       <c r="I283" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
-      <c r="A284" s="2"/>
-      <c r="B284" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>280</v>
+      <c r="A284" s="9">
+        <v>27</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C284" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="D284" s="2"/>
-      <c r="E284" s="9" t="s">
-        <v>13</v>
+      <c r="E284" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
@@ -6082,16 +6576,18 @@
       <c r="I284" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
-      <c r="A285" s="2"/>
-      <c r="B285" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C285" s="10" t="s">
-        <v>281</v>
+      <c r="A285" s="9">
+        <v>28</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="D285" s="2"/>
-      <c r="E285" s="9" t="s">
-        <v>13</v>
+      <c r="E285" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
@@ -6099,12 +6595,14 @@
       <c r="I285" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
-      <c r="A286" s="2"/>
-      <c r="B286" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>282</v>
+      <c r="A286" s="9">
+        <v>29</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C286" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="4"/>
@@ -6114,12 +6612,14 @@
       <c r="I286" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
-      <c r="A287" s="2"/>
-      <c r="B287" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>283</v>
+      <c r="A287" s="9">
+        <v>30</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C287" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="4"/>
@@ -6137,15 +6637,15 @@
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
-      <c r="I288" s="9" t="s">
-        <v>13</v>
+      <c r="I288" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
       <c r="A289" s="2"/>
       <c r="B289" s="7"/>
-      <c r="C289" s="5" t="s">
-        <v>284</v>
+      <c r="C289" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="4"/>
@@ -6155,29 +6655,33 @@
       <c r="I289" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
-      <c r="A290" s="2"/>
-      <c r="B290" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>18</v>
+      <c r="A290" s="9">
+        <v>1</v>
+      </c>
+      <c r="B290" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C290" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="4"/>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
-      <c r="H290" s="9" t="s">
-        <v>13</v>
+      <c r="H290" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I290" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
-      <c r="A291" s="2"/>
-      <c r="B291" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>285</v>
+      <c r="A291" s="9">
+        <v>2</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C291" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="4"/>
@@ -6187,12 +6691,14 @@
       <c r="I291" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
-      <c r="A292" s="2"/>
-      <c r="B292" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>286</v>
+      <c r="A292" s="9">
+        <v>3</v>
+      </c>
+      <c r="B292" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C292" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="4"/>
@@ -6226,8 +6732,8 @@
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
       <c r="A295" s="2"/>
       <c r="B295" s="7"/>
-      <c r="C295" s="5" t="s">
-        <v>287</v>
+      <c r="C295" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="4"/>
@@ -6237,12 +6743,14 @@
       <c r="I295" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
-      <c r="A296" s="2"/>
-      <c r="B296" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>288</v>
+      <c r="A296" s="9">
+        <v>1</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C296" s="19" t="s">
+        <v>286</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="4"/>
@@ -6252,12 +6760,14 @@
       <c r="I296" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
-      <c r="A297" s="2"/>
-      <c r="B297" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C297" s="10" t="s">
-        <v>289</v>
+      <c r="A297" s="9">
+        <v>2</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C297" s="11" t="s">
+        <v>287</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="4"/>
@@ -6267,29 +6777,33 @@
       <c r="I297" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
-      <c r="A298" s="2"/>
-      <c r="B298" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>290</v>
+      <c r="A298" s="9">
+        <v>3</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C298" s="19" t="s">
+        <v>288</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="4"/>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
-      <c r="I298" s="9" t="s">
-        <v>13</v>
+      <c r="I298" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
-      <c r="A299" s="2"/>
-      <c r="B299" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>291</v>
+      <c r="A299" s="9">
+        <v>4</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C299" s="19" t="s">
+        <v>289</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="4"/>
@@ -6299,80 +6813,90 @@
       <c r="I299" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
-      <c r="A300" s="2"/>
-      <c r="B300" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>292</v>
+      <c r="A300" s="9">
+        <v>5</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C300" s="19" t="s">
+        <v>290</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="4"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
-      <c r="H300" s="9" t="s">
-        <v>13</v>
+      <c r="H300" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I300" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
-      <c r="A301" s="2"/>
-      <c r="B301" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>293</v>
+      <c r="A301" s="9">
+        <v>6</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C301" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="4"/>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
-      <c r="H301" s="9" t="s">
-        <v>13</v>
+      <c r="H301" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I301" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
-      <c r="A302" s="2"/>
-      <c r="B302" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C302" s="10" t="s">
-        <v>294</v>
+      <c r="A302" s="9">
+        <v>7</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C302" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="4"/>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
-      <c r="H302" s="9" t="s">
-        <v>13</v>
+      <c r="H302" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I302" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
-      <c r="A303" s="2"/>
-      <c r="B303" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>295</v>
+      <c r="A303" s="9">
+        <v>8</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C303" s="19" t="s">
+        <v>293</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="4"/>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
-      <c r="H303" s="9" t="s">
-        <v>13</v>
+      <c r="H303" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I303" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
-      <c r="A304" s="2"/>
-      <c r="B304" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>296</v>
+      <c r="A304" s="9">
+        <v>9</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C304" s="19" t="s">
+        <v>294</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="4"/>
@@ -6382,12 +6906,14 @@
       <c r="I304" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
-      <c r="A305" s="2"/>
-      <c r="B305" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C305" s="10" t="s">
-        <v>297</v>
+      <c r="A305" s="9">
+        <v>10</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C305" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="4"/>
@@ -6405,8 +6931,8 @@
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
-      <c r="I306" s="9" t="s">
-        <v>13</v>
+      <c r="I306" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
@@ -6423,8 +6949,8 @@
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
       <c r="A308" s="2"/>
       <c r="B308" s="7"/>
-      <c r="C308" s="21" t="s">
-        <v>298</v>
+      <c r="C308" s="24" t="s">
+        <v>296</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="4"/>
@@ -6434,12 +6960,14 @@
       <c r="I308" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
-      <c r="A309" s="2"/>
-      <c r="B309" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>299</v>
+      <c r="A309" s="9">
+        <v>1</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C309" s="19" t="s">
+        <v>297</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="4"/>
@@ -6449,12 +6977,14 @@
       <c r="I309" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
-      <c r="A310" s="2"/>
-      <c r="B310" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C310" s="10" t="s">
-        <v>300</v>
+      <c r="A310" s="9">
+        <v>2</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C310" s="11" t="s">
+        <v>298</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="4"/>
@@ -6464,31 +6994,35 @@
       <c r="I310" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
-      <c r="A311" s="2"/>
-      <c r="B311" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C311" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D311" s="9" t="s">
-        <v>13</v>
+      <c r="A311" s="9">
+        <v>3</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C311" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D311" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E311" s="4"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
-      <c r="I311" s="9" t="s">
-        <v>13</v>
+      <c r="I311" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
-      <c r="A312" s="2"/>
-      <c r="B312" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C312" s="5" t="s">
-        <v>302</v>
+      <c r="A312" s="9">
+        <v>4</v>
+      </c>
+      <c r="B312" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C312" s="19" t="s">
+        <v>300</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="4"/>
@@ -6498,12 +7032,14 @@
       <c r="I312" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
-      <c r="A313" s="2"/>
-      <c r="B313" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C313" s="10" t="s">
-        <v>303</v>
+      <c r="A313" s="9">
+        <v>5</v>
+      </c>
+      <c r="B313" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="4"/>
@@ -6513,12 +7049,14 @@
       <c r="I313" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
-      <c r="A314" s="2"/>
-      <c r="B314" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>304</v>
+      <c r="A314" s="9">
+        <v>6</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C314" s="19" t="s">
+        <v>302</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="4"/>
@@ -6528,29 +7066,33 @@
       <c r="I314" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
-      <c r="A315" s="2"/>
-      <c r="B315" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C315" s="5" t="s">
-        <v>305</v>
+      <c r="A315" s="9">
+        <v>7</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C315" s="19" t="s">
+        <v>303</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="4"/>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
-      <c r="H315" s="9" t="s">
-        <v>13</v>
+      <c r="H315" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I315" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
-      <c r="A316" s="2"/>
-      <c r="B316" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C316" s="5" t="s">
-        <v>306</v>
+      <c r="A316" s="9">
+        <v>8</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C316" s="19" t="s">
+        <v>304</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="4"/>
@@ -6560,15 +7102,17 @@
       <c r="I316" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
-      <c r="A317" s="2"/>
-      <c r="B317" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C317" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D317" s="9" t="s">
-        <v>13</v>
+      <c r="A317" s="9">
+        <v>9</v>
+      </c>
+      <c r="B317" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C317" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D317" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E317" s="4"/>
       <c r="F317" s="2"/>
@@ -6577,29 +7121,33 @@
       <c r="I317" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
-      <c r="A318" s="2"/>
-      <c r="B318" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C318" s="5" t="s">
-        <v>308</v>
+      <c r="A318" s="9">
+        <v>10</v>
+      </c>
+      <c r="B318" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C318" s="19" t="s">
+        <v>306</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="4"/>
-      <c r="F318" s="9" t="s">
-        <v>13</v>
+      <c r="F318" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
-      <c r="A319" s="2"/>
-      <c r="B319" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C319" s="5" t="s">
-        <v>309</v>
+      <c r="A319" s="9">
+        <v>11</v>
+      </c>
+      <c r="B319" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C319" s="19" t="s">
+        <v>307</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="4"/>
@@ -6609,82 +7157,92 @@
       <c r="I319" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
-      <c r="A320" s="2"/>
-      <c r="B320" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C320" s="5" t="s">
-        <v>310</v>
+      <c r="A320" s="9">
+        <v>12</v>
+      </c>
+      <c r="B320" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C320" s="19" t="s">
+        <v>308</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="4"/>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
-      <c r="H320" s="9" t="s">
+      <c r="H320" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I320" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
+      <c r="A321" s="9">
         <v>13</v>
       </c>
-      <c r="I320" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
-      <c r="A321" s="2"/>
-      <c r="B321" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C321" s="10" t="s">
-        <v>311</v>
+      <c r="B321" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C321" s="11" t="s">
+        <v>309</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="4"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
-      <c r="H321" s="9"/>
+      <c r="H321" s="10"/>
       <c r="I321" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
-      <c r="A322" s="2"/>
-      <c r="B322" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C322" s="10" t="s">
-        <v>312</v>
+      <c r="A322" s="9">
+        <v>14</v>
+      </c>
+      <c r="B322" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C322" s="11" t="s">
+        <v>310</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="4"/>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
-      <c r="H322" s="9" t="s">
-        <v>13</v>
+      <c r="H322" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I322" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
-      <c r="A323" s="2"/>
-      <c r="B323" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C323" s="10" t="s">
-        <v>313</v>
+      <c r="A323" s="9">
+        <v>15</v>
+      </c>
+      <c r="B323" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C323" s="11" t="s">
+        <v>311</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="4"/>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
-      <c r="H323" s="9" t="s">
-        <v>13</v>
+      <c r="H323" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I323" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
-      <c r="A324" s="2"/>
-      <c r="B324" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C324" s="10" t="s">
-        <v>314</v>
+      <c r="A324" s="9">
+        <v>16</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C324" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="D324" s="2"/>
-      <c r="E324" s="9" t="s">
-        <v>13</v>
+      <c r="E324" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -6692,12 +7250,14 @@
       <c r="I324" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
-      <c r="A325" s="2"/>
-      <c r="B325" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C325" s="10" t="s">
-        <v>315</v>
+      <c r="A325" s="9">
+        <v>17</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C325" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="4"/>
@@ -6707,12 +7267,14 @@
       <c r="I325" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
-      <c r="A326" s="2"/>
-      <c r="B326" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C326" s="10" t="s">
-        <v>316</v>
+      <c r="A326" s="9">
+        <v>18</v>
+      </c>
+      <c r="B326" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C326" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="4"/>
@@ -6735,8 +7297,8 @@
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
       <c r="A328" s="2"/>
       <c r="B328" s="7"/>
-      <c r="C328" s="22" t="s">
-        <v>317</v>
+      <c r="C328" s="25" t="s">
+        <v>315</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="4"/>
@@ -6746,15 +7308,17 @@
       <c r="I328" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
-      <c r="A329" s="2"/>
-      <c r="B329" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C329" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D329" s="9" t="s">
-        <v>13</v>
+      <c r="A329" s="9">
+        <v>1</v>
+      </c>
+      <c r="B329" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C329" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D329" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E329" s="4"/>
       <c r="F329" s="2"/>
@@ -6763,29 +7327,33 @@
       <c r="I329" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
-      <c r="A330" s="2"/>
-      <c r="B330" s="9" t="s">
+      <c r="A330" s="9">
+        <v>2</v>
+      </c>
+      <c r="B330" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C330" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="C330" s="10" t="s">
-        <v>320</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="4"/>
       <c r="F330" s="2"/>
-      <c r="G330" s="9" t="s">
-        <v>13</v>
+      <c r="G330" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
-      <c r="A331" s="2"/>
-      <c r="B331" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C331" s="10" t="s">
-        <v>95</v>
+      <c r="A331" s="9">
+        <v>3</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C331" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="4"/>
@@ -6795,19 +7363,21 @@
       <c r="I331" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
-      <c r="A332" s="2"/>
-      <c r="B332" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C332" s="10" t="s">
-        <v>321</v>
+      <c r="A332" s="9">
+        <v>4</v>
+      </c>
+      <c r="B332" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C332" s="11" t="s">
+        <v>319</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="4"/>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
-      <c r="H332" s="9" t="s">
-        <v>13</v>
+      <c r="H332" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I332" s="2"/>
     </row>
@@ -6816,8 +7386,8 @@
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
-      <c r="E333" s="9" t="s">
-        <v>13</v>
+      <c r="E333" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="320">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="319">
   <si>
     <t>Status</t>
   </si>
@@ -1003,7 +1000,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,6 +1023,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000ff"/>
@@ -1040,13 +1043,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1091,14 +1087,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF060606"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000ff"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1163,31 +1151,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1195,16 +1174,28 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
@@ -1216,12 +1207,6 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1231,14 +1216,14 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1554,25 +1539,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="26" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="26" width="64.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="24" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="25" width="64.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="C1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
@@ -1581,13 +1562,9 @@
       <c r="I1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>
@@ -1596,7 +1573,7 @@
       <c r="I2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1607,33 +1584,33 @@
       <c r="I3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
@@ -1643,62 +1620,64 @@
       <c r="I5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="10">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="9">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="12" t="s">
-        <v>10</v>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1706,35 +1685,35 @@
       <c r="I8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>14</v>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>15</v>
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="12" t="s">
-        <v>10</v>
+      <c r="E10" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1742,33 +1721,33 @@
       <c r="I10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>16</v>
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="12" t="s">
-        <v>10</v>
+      <c r="H11" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="9">
-        <v>7</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>17</v>
+      <c r="A12" s="10">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
@@ -1778,14 +1757,14 @@
       <c r="I12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>8</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>18</v>
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
@@ -1795,33 +1774,33 @@
       <c r="I13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="9">
-        <v>9</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>19</v>
+      <c r="A14" s="10">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="12" t="s">
-        <v>10</v>
+      <c r="G14" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
@@ -1831,128 +1810,128 @@
       <c r="I15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>22</v>
+      <c r="B16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="12" t="s">
-        <v>10</v>
+      <c r="I16" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>23</v>
+      <c r="B17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="12" t="s">
-        <v>10</v>
+      <c r="F17" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>13</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>24</v>
+      <c r="B18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="10"/>
+      <c r="E18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>14</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>25</v>
+      <c r="B19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="12" t="s">
-        <v>10</v>
+      <c r="F19" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <v>15</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>26</v>
+      <c r="B20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="12" t="s">
-        <v>10</v>
+      <c r="F20" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <v>16</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>27</v>
+      <c r="B21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="12" t="s">
-        <v>10</v>
+      <c r="I21" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="9">
+      <c r="A22" s="10">
         <v>17</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>28</v>
+      <c r="B22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
@@ -1962,14 +1941,14 @@
       <c r="I22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="9">
+      <c r="A23" s="10">
         <v>18</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>29</v>
+      <c r="B23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
@@ -1979,14 +1958,14 @@
       <c r="I23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="9">
-        <v>19</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>30</v>
+      <c r="A24" s="10">
+        <v>19</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
@@ -1996,14 +1975,14 @@
       <c r="I24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="9">
+      <c r="A25" s="10">
         <v>20</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>31</v>
+      <c r="B25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
@@ -2013,14 +1992,14 @@
       <c r="I25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="9">
+      <c r="A26" s="10">
         <v>21</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>32</v>
+      <c r="B26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
@@ -2030,90 +2009,90 @@
       <c r="I26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="9">
+      <c r="A27" s="10">
         <v>22</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>33</v>
+      <c r="B27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="12" t="s">
-        <v>10</v>
+      <c r="G27" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="9">
+      <c r="A28" s="10">
         <v>23</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>34</v>
+      <c r="B28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="12" t="s">
-        <v>10</v>
+      <c r="G28" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="9">
+      <c r="A29" s="10">
         <v>24</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>35</v>
+      <c r="B29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="12" t="s">
-        <v>10</v>
+      <c r="G29" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="9">
+      <c r="A30" s="10">
         <v>25</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="12" t="s">
-        <v>10</v>
+      <c r="G30" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="9">
+      <c r="A31" s="10">
         <v>26</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>38</v>
+      <c r="B31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
@@ -2123,14 +2102,14 @@
       <c r="I31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="9">
+      <c r="A32" s="10">
         <v>27</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>39</v>
+      <c r="B32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
@@ -2140,14 +2119,14 @@
       <c r="I32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="9">
+      <c r="A33" s="10">
         <v>28</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
@@ -2157,7 +2136,7 @@
       <c r="I33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="2"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2168,7 +2147,7 @@
       <c r="I34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="2"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2179,10 +2158,10 @@
       <c r="I35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="2"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="10" t="s">
-        <v>40</v>
+      <c r="A36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
@@ -2192,33 +2171,33 @@
       <c r="I36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="9">
+      <c r="A37" s="10">
         <v>1</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>41</v>
+      <c r="B37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="12" t="s">
-        <v>10</v>
+      <c r="H37" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="9">
+      <c r="A38" s="10">
         <v>2</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>42</v>
+      <c r="B38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
@@ -2228,33 +2207,33 @@
       <c r="I38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="9">
+      <c r="A39" s="10">
         <v>3</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>43</v>
+      <c r="B39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="12" t="s">
-        <v>10</v>
+      <c r="H39" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="I39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="9">
+      <c r="A40" s="10">
         <v>4</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>44</v>
+      <c r="B40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
@@ -2264,39 +2243,39 @@
       <c r="I40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="9">
+      <c r="A41" s="10">
         <v>5</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>45</v>
+      <c r="B41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="12" t="s">
-        <v>10</v>
+      <c r="E41" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="12" t="s">
-        <v>10</v>
+      <c r="G41" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="9">
+      <c r="A42" s="10">
         <v>6</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="12" t="s">
-        <v>10</v>
+      <c r="E42" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2304,37 +2283,37 @@
       <c r="I42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="9">
-        <v>7</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>48</v>
+      <c r="A43" s="10">
+        <v>7</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="14"/>
+      <c r="E43" s="15"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="12" t="s">
-        <v>10</v>
+      <c r="H43" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="I43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="9">
+      <c r="A44" s="10">
         <v>8</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>49</v>
+      <c r="B44" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="12" t="s">
-        <v>10</v>
+      <c r="E44" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2342,18 +2321,18 @@
       <c r="I44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="9">
-        <v>9</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>50</v>
+      <c r="A45" s="10">
+        <v>9</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="14" t="s">
-        <v>10</v>
+      <c r="E45" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2361,18 +2340,18 @@
       <c r="I45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="9">
+      <c r="A46" s="10">
         <v>10</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>51</v>
+      <c r="B46" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="12" t="s">
-        <v>10</v>
+      <c r="E46" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2380,33 +2359,33 @@
       <c r="I46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="9">
+      <c r="A47" s="10">
         <v>11</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>52</v>
+      <c r="B47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="12" t="s">
-        <v>10</v>
+      <c r="H47" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="I47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="9">
+      <c r="A48" s="10">
         <v>12</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>53</v>
+      <c r="B48" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
@@ -2416,33 +2395,33 @@
       <c r="I48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="9">
+      <c r="A49" s="10">
         <v>13</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>54</v>
+      <c r="B49" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="4"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="12" t="s">
-        <v>10</v>
+      <c r="H49" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="I49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="9">
+      <c r="A50" s="10">
         <v>14</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>55</v>
+      <c r="B50" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="4"/>
@@ -2452,33 +2431,33 @@
       <c r="I50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="9">
+      <c r="A51" s="10">
         <v>15</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>56</v>
+      <c r="B51" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="10" t="s">
-        <v>10</v>
+      <c r="F51" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="9">
+      <c r="A52" s="10">
         <v>16</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>57</v>
+      <c r="B52" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="4"/>
@@ -2488,33 +2467,33 @@
       <c r="I52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="9">
+      <c r="A53" s="10">
         <v>17</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>58</v>
+      <c r="B53" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="4"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="12" t="s">
-        <v>10</v>
+      <c r="H53" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="I53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="9">
+      <c r="A54" s="10">
         <v>18</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>59</v>
+      <c r="B54" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="4"/>
@@ -2524,33 +2503,33 @@
       <c r="I54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="9">
-        <v>19</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>60</v>
+      <c r="A55" s="10">
+        <v>19</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="12" t="s">
-        <v>10</v>
+      <c r="F55" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="9">
+      <c r="A56" s="10">
         <v>20</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>61</v>
+      <c r="B56" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="4"/>
@@ -2560,7 +2539,7 @@
       <c r="I56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="2"/>
+      <c r="A57" s="6"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2571,10 +2550,10 @@
       <c r="I57" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="2"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7" t="s">
-        <v>62</v>
+      <c r="A58" s="6"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="4"/>
@@ -2584,14 +2563,14 @@
       <c r="I58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="9">
+      <c r="A59" s="10">
         <v>1</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>63</v>
+      <c r="B59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="4"/>
@@ -2601,14 +2580,14 @@
       <c r="I59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="9">
+      <c r="A60" s="10">
         <v>2</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>64</v>
+      <c r="B60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="4"/>
@@ -2618,78 +2597,78 @@
       <c r="I60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="9">
+      <c r="A61" s="10">
         <v>3</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>65</v>
+      <c r="B61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="4"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="10"/>
+      <c r="H61" s="11"/>
       <c r="I61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="9">
+      <c r="A62" s="10">
         <v>4</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>28</v>
+      <c r="B62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="10" t="s">
-        <v>10</v>
+      <c r="H62" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="9">
+      <c r="A63" s="10">
         <v>5</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>66</v>
+      <c r="B63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="4"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="12" t="s">
-        <v>10</v>
+      <c r="H63" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="I63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="2"/>
+      <c r="A64" s="6"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="4"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="10" t="s">
-        <v>10</v>
+      <c r="H64" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="2"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="10" t="s">
-        <v>67</v>
+      <c r="A65" s="6"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="4"/>
@@ -2699,14 +2678,14 @@
       <c r="I65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="9">
+      <c r="A66" s="10">
         <v>1</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>68</v>
+      <c r="B66" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="4"/>
@@ -2716,14 +2695,14 @@
       <c r="I66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="9">
+      <c r="A67" s="10">
         <v>2</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>69</v>
+      <c r="B67" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="4"/>
@@ -2733,14 +2712,14 @@
       <c r="I67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="9">
+      <c r="A68" s="10">
         <v>3</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>70</v>
+      <c r="B68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="4"/>
@@ -2750,14 +2729,14 @@
       <c r="I68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="9">
+      <c r="A69" s="10">
         <v>4</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>71</v>
+      <c r="B69" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="4"/>
@@ -2767,33 +2746,33 @@
       <c r="I69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="9">
+      <c r="A70" s="10">
         <v>5</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>72</v>
+      <c r="B70" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="7" t="s">
-        <v>10</v>
+      <c r="H70" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="I70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="9">
+      <c r="A71" s="10">
         <v>6</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>73</v>
+      <c r="B71" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="4"/>
@@ -2803,18 +2782,18 @@
       <c r="I71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="9">
-        <v>7</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>74</v>
+      <c r="A72" s="10">
+        <v>7</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="12" t="s">
-        <v>10</v>
+      <c r="E72" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -2822,14 +2801,14 @@
       <c r="I72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="9">
+      <c r="A73" s="10">
         <v>8</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>75</v>
+      <c r="B73" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="4"/>
@@ -2839,14 +2818,14 @@
       <c r="I73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="9">
-        <v>9</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>76</v>
+      <c r="A74" s="10">
+        <v>9</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="4"/>
@@ -2856,14 +2835,14 @@
       <c r="I74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="9">
+      <c r="A75" s="10">
         <v>10</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>77</v>
+      <c r="B75" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="4"/>
@@ -2873,33 +2852,33 @@
       <c r="I75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="9">
+      <c r="A76" s="10">
         <v>11</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>78</v>
+      <c r="B76" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="4"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="12" t="s">
-        <v>10</v>
+      <c r="H76" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="I76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="9">
+      <c r="A77" s="10">
         <v>12</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>79</v>
+      <c r="B77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="4"/>
@@ -2909,7 +2888,7 @@
       <c r="I77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="2"/>
+      <c r="A78" s="6"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2920,48 +2899,48 @@
       <c r="I78" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="2"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="10" t="s">
-        <v>80</v>
+      <c r="A79" s="6"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="4"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="12" t="s">
-        <v>10</v>
+      <c r="I79" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="9">
+      <c r="A80" s="10">
         <v>1</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>81</v>
+      <c r="B80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="12" t="s">
-        <v>10</v>
+      <c r="G80" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="9">
+      <c r="A81" s="10">
         <v>2</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>82</v>
+      <c r="B81" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="4"/>
@@ -2971,35 +2950,35 @@
       <c r="I81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="9">
+      <c r="A82" s="10">
         <v>3</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>83</v>
+      <c r="B82" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="12" t="s">
-        <v>10</v>
+      <c r="F82" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="G82" s="2"/>
-      <c r="H82" s="12" t="s">
-        <v>10</v>
+      <c r="H82" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="I82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="9">
+      <c r="A83" s="10">
         <v>4</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>81</v>
+      <c r="B83" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="4"/>
@@ -3009,14 +2988,14 @@
       <c r="I83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="9">
+      <c r="A84" s="10">
         <v>5</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>84</v>
+      <c r="B84" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="4"/>
@@ -3026,18 +3005,18 @@
       <c r="I84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="9">
+      <c r="A85" s="10">
         <v>6</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>85</v>
+      <c r="B85" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="D85" s="2"/>
-      <c r="E85" s="7" t="s">
-        <v>10</v>
+      <c r="E85" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -3045,14 +3024,14 @@
       <c r="I85" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="9">
-        <v>7</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>86</v>
+      <c r="A86" s="10">
+        <v>7</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="4"/>
@@ -3062,33 +3041,33 @@
       <c r="I86" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="9">
+      <c r="A87" s="10">
         <v>8</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>87</v>
+      <c r="B87" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="4"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="10" t="s">
-        <v>10</v>
+      <c r="I87" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="9">
-        <v>9</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>88</v>
+      <c r="A88" s="10">
+        <v>9</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="4"/>
@@ -3098,33 +3077,33 @@
       <c r="I88" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="9">
+      <c r="A89" s="10">
         <v>10</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>89</v>
+      <c r="B89" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="4"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="12" t="s">
-        <v>10</v>
+      <c r="G89" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="9">
+      <c r="A90" s="10">
         <v>11</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>90</v>
+      <c r="B90" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="4"/>
@@ -3134,52 +3113,52 @@
       <c r="I90" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="9">
+      <c r="A91" s="10">
         <v>12</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>91</v>
+      <c r="B91" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="4"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="12" t="s">
-        <v>10</v>
+      <c r="I91" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="9">
+      <c r="A92" s="10">
         <v>13</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>92</v>
+      <c r="B92" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="12" t="s">
-        <v>10</v>
+      <c r="H92" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="I92" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="9">
+      <c r="A93" s="10">
         <v>14</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>93</v>
+      <c r="B93" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="4"/>
@@ -3189,26 +3168,26 @@
       <c r="I93" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="9">
+      <c r="A94" s="10">
         <v>15</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>94</v>
+      <c r="B94" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="12" t="s">
-        <v>10</v>
+      <c r="F94" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="2"/>
+      <c r="A95" s="6"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3219,10 +3198,10 @@
       <c r="I95" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="2"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="17" t="s">
-        <v>95</v>
+      <c r="A96" s="6"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="4"/>
@@ -3232,14 +3211,14 @@
       <c r="I96" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="9">
+      <c r="A97" s="10">
         <v>1</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>96</v>
+      <c r="B97" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="4"/>
@@ -3249,18 +3228,18 @@
       <c r="I97" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="9">
+      <c r="A98" s="10">
         <v>2</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>97</v>
+      <c r="B98" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D98" s="2"/>
-      <c r="E98" s="12" t="s">
-        <v>10</v>
+      <c r="E98" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -3268,33 +3247,33 @@
       <c r="I98" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="9">
+      <c r="A99" s="10">
         <v>3</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>98</v>
+      <c r="B99" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="4"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
-      <c r="I99" s="12" t="s">
-        <v>10</v>
+      <c r="I99" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="9">
+      <c r="A100" s="10">
         <v>4</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>99</v>
+      <c r="B100" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="4"/>
@@ -3304,14 +3283,14 @@
       <c r="I100" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="9">
+      <c r="A101" s="10">
         <v>5</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>100</v>
+      <c r="B101" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="4"/>
@@ -3321,90 +3300,90 @@
       <c r="I101" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="9">
+      <c r="A102" s="10">
         <v>6</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>101</v>
+      <c r="B102" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="10" t="s">
-        <v>10</v>
+      <c r="H102" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I102" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="9">
-        <v>7</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>102</v>
+      <c r="A103" s="10">
+        <v>7</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="4"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103" s="10" t="s">
-        <v>10</v>
+      <c r="H103" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="9">
+      <c r="A104" s="10">
         <v>8</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>103</v>
+      <c r="B104" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="10"/>
+      <c r="H104" s="11"/>
       <c r="I104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="9">
-        <v>9</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>104</v>
+      <c r="A105" s="10">
+        <v>9</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="4"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="12" t="s">
+      <c r="H105" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="10">
         <v>10</v>
       </c>
-      <c r="I105" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="9">
-        <v>10</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>105</v>
+      <c r="B106" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="4"/>
@@ -3414,35 +3393,35 @@
       <c r="I106" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="9">
+      <c r="A107" s="10">
         <v>11</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>106</v>
+      <c r="B107" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="4"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I107" s="10" t="s">
-        <v>10</v>
+      <c r="H107" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="9">
+      <c r="A108" s="10">
         <v>12</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>107</v>
+      <c r="B108" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="4"/>
@@ -3452,14 +3431,14 @@
       <c r="I108" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="9">
+      <c r="A109" s="10">
         <v>13</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>108</v>
+      <c r="B109" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="4"/>
@@ -3469,33 +3448,33 @@
       <c r="I109" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="9">
+      <c r="A110" s="10">
         <v>14</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>109</v>
+      <c r="B110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="10" t="s">
-        <v>10</v>
+      <c r="F110" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="9">
+      <c r="A111" s="10">
         <v>15</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>110</v>
+      <c r="B111" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="4"/>
@@ -3505,14 +3484,14 @@
       <c r="I111" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="9">
+      <c r="A112" s="10">
         <v>16</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>111</v>
+      <c r="B112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="4"/>
@@ -3522,52 +3501,52 @@
       <c r="I112" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="9">
+      <c r="A113" s="10">
         <v>17</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>112</v>
+      <c r="B113" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="4"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
-      <c r="I113" s="10" t="s">
-        <v>10</v>
+      <c r="I113" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="9">
+      <c r="A114" s="10">
         <v>18</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>113</v>
+      <c r="B114" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="4"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="10" t="s">
-        <v>10</v>
+      <c r="H114" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I114" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="9">
-        <v>19</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>114</v>
+      <c r="A115" s="10">
+        <v>19</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="4"/>
@@ -3577,14 +3556,14 @@
       <c r="I115" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="9">
+      <c r="A116" s="10">
         <v>20</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>115</v>
+      <c r="B116" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="4"/>
@@ -3594,14 +3573,14 @@
       <c r="I116" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="9">
+      <c r="A117" s="10">
         <v>21</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>116</v>
+      <c r="B117" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="4"/>
@@ -3611,14 +3590,14 @@
       <c r="I117" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="9">
+      <c r="A118" s="10">
         <v>22</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>117</v>
+      <c r="B118" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="4"/>
@@ -3628,52 +3607,52 @@
       <c r="I118" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="9">
+      <c r="A119" s="10">
         <v>23</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>118</v>
+      <c r="B119" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="10" t="s">
-        <v>10</v>
+      <c r="F119" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="9">
+      <c r="A120" s="10">
         <v>24</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>119</v>
+      <c r="B120" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="4"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
-      <c r="I120" s="10" t="s">
-        <v>10</v>
+      <c r="I120" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="9">
+      <c r="A121" s="10">
         <v>25</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>120</v>
+      <c r="B121" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="4"/>
@@ -3683,14 +3662,14 @@
       <c r="I121" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="9">
+      <c r="A122" s="10">
         <v>26</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>121</v>
+      <c r="B122" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="4"/>
@@ -3700,7 +3679,7 @@
       <c r="I122" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="2"/>
+      <c r="A123" s="6"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -3711,10 +3690,10 @@
       <c r="I123" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="2"/>
+      <c r="A124" s="6"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="18" t="s">
-        <v>122</v>
+      <c r="C124" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="4"/>
@@ -3724,14 +3703,14 @@
       <c r="I124" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="9">
+      <c r="A125" s="10">
         <v>1</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>123</v>
+      <c r="B125" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="4"/>
@@ -3741,18 +3720,18 @@
       <c r="I125" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="9">
+      <c r="A126" s="10">
         <v>2</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>124</v>
+      <c r="B126" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D126" s="2"/>
-      <c r="E126" s="10" t="s">
-        <v>10</v>
+      <c r="E126" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -3760,35 +3739,35 @@
       <c r="I126" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="9">
+      <c r="A127" s="10">
         <v>3</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>125</v>
+      <c r="B127" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="4"/>
       <c r="F127" s="2"/>
-      <c r="G127" s="10" t="s">
-        <v>10</v>
+      <c r="G127" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H127" s="2"/>
-      <c r="I127" s="10" t="s">
-        <v>10</v>
+      <c r="I127" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="9">
+      <c r="A128" s="10">
         <v>4</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>126</v>
+      <c r="B128" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="4"/>
@@ -3798,33 +3777,33 @@
       <c r="I128" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="9">
+      <c r="A129" s="10">
         <v>5</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>127</v>
+      <c r="B129" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="4"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-      <c r="H129" s="10" t="s">
-        <v>10</v>
+      <c r="H129" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I129" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="9">
+      <c r="A130" s="10">
         <v>6</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>128</v>
+      <c r="B130" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="4"/>
@@ -3834,14 +3813,14 @@
       <c r="I130" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="9">
-        <v>7</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>129</v>
+      <c r="A131" s="10">
+        <v>7</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="4"/>
@@ -3851,37 +3830,37 @@
       <c r="I131" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="9">
+      <c r="A132" s="10">
         <v>8</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>130</v>
+      <c r="B132" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="4"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
-      <c r="I132" s="10" t="s">
-        <v>10</v>
+      <c r="I132" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="9">
-        <v>9</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>131</v>
+      <c r="A133" s="10">
+        <v>9</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="D133" s="2"/>
-      <c r="E133" s="10" t="s">
-        <v>10</v>
+      <c r="E133" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3889,52 +3868,52 @@
       <c r="I133" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="9">
+      <c r="A134" s="10">
         <v>10</v>
       </c>
-      <c r="B134" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>132</v>
+      <c r="B134" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="4"/>
       <c r="F134" s="2"/>
-      <c r="G134" s="10" t="s">
-        <v>10</v>
+      <c r="G134" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="9">
+      <c r="A135" s="10">
         <v>11</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>133</v>
+      <c r="B135" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="4"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
-      <c r="H135" s="10" t="s">
-        <v>10</v>
+      <c r="H135" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I135" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="9">
+      <c r="A136" s="10">
         <v>12</v>
       </c>
-      <c r="B136" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>134</v>
+      <c r="B136" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="4"/>
@@ -3944,18 +3923,18 @@
       <c r="I136" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
-      <c r="A137" s="9">
+      <c r="A137" s="10">
         <v>13</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>135</v>
+      <c r="B137" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="D137" s="2"/>
-      <c r="E137" s="10" t="s">
-        <v>10</v>
+      <c r="E137" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -3963,14 +3942,14 @@
       <c r="I137" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
-      <c r="A138" s="9">
+      <c r="A138" s="10">
         <v>14</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>136</v>
+      <c r="B138" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="4"/>
@@ -3980,54 +3959,54 @@
       <c r="I138" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
-      <c r="A139" s="9">
+      <c r="A139" s="10">
         <v>15</v>
       </c>
-      <c r="B139" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>137</v>
+      <c r="B139" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="4"/>
       <c r="F139" s="2"/>
-      <c r="G139" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H139" s="10" t="s">
-        <v>10</v>
+      <c r="G139" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I139" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
-      <c r="A140" s="9">
+      <c r="A140" s="10">
         <v>16</v>
       </c>
-      <c r="B140" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>138</v>
+      <c r="B140" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="4"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
-      <c r="I140" s="10" t="s">
-        <v>10</v>
+      <c r="I140" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
-      <c r="A141" s="9">
+      <c r="A141" s="10">
         <v>17</v>
       </c>
-      <c r="B141" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C141" s="21" t="s">
-        <v>139</v>
+      <c r="B141" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="4"/>
@@ -4037,23 +4016,23 @@
       <c r="I141" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
-      <c r="A142" s="2"/>
+      <c r="A142" s="6"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="4"/>
       <c r="F142" s="2"/>
-      <c r="G142" s="10" t="s">
-        <v>10</v>
+      <c r="G142" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
-      <c r="A143" s="2"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="22" t="s">
-        <v>140</v>
+      <c r="A143" s="6"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="4"/>
@@ -4063,14 +4042,14 @@
       <c r="I143" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="9">
+      <c r="A144" s="10">
         <v>1</v>
       </c>
-      <c r="B144" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="19" t="s">
-        <v>141</v>
+      <c r="B144" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="4"/>
@@ -4080,92 +4059,92 @@
       <c r="I144" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="9">
+      <c r="A145" s="10">
         <v>2</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>142</v>
+      <c r="B145" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="4"/>
-      <c r="F145" s="10" t="s">
-        <v>10</v>
+      <c r="F145" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="9">
+      <c r="A146" s="10">
         <v>3</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>143</v>
+      <c r="B146" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="10" t="s">
-        <v>10</v>
+      <c r="F146" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
-      <c r="I146" s="10" t="s">
-        <v>10</v>
+      <c r="I146" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="9">
+      <c r="A147" s="10">
         <v>4</v>
       </c>
-      <c r="B147" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>144</v>
+      <c r="B147" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="10"/>
+      <c r="F147" s="11"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="9">
+      <c r="A148" s="10">
         <v>5</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>10</v>
+      <c r="B148" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E148" s="4"/>
-      <c r="F148" s="10" t="s">
-        <v>10</v>
+      <c r="F148" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="9">
+      <c r="A149" s="10">
         <v>6</v>
       </c>
-      <c r="B149" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>146</v>
+      <c r="B149" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="4"/>
@@ -4175,14 +4154,14 @@
       <c r="I149" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="9">
-        <v>7</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>147</v>
+      <c r="A150" s="10">
+        <v>7</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="4"/>
@@ -4192,14 +4171,14 @@
       <c r="I150" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="9">
+      <c r="A151" s="10">
         <v>8</v>
       </c>
-      <c r="B151" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>148</v>
+      <c r="B151" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="4"/>
@@ -4209,35 +4188,35 @@
       <c r="I151" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="9">
-        <v>9</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>149</v>
+      <c r="A152" s="10">
+        <v>9</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="4"/>
       <c r="F152" s="2"/>
-      <c r="G152" s="7" t="s">
+      <c r="G152" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H152" s="2"/>
+      <c r="I152" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+      <c r="A153" s="10">
         <v>10</v>
       </c>
-      <c r="H152" s="2"/>
-      <c r="I152" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
-      <c r="A153" s="9">
-        <v>10</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>150</v>
+      <c r="B153" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="4"/>
@@ -4247,17 +4226,17 @@
       <c r="I153" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="9">
+      <c r="A154" s="10">
         <v>11</v>
       </c>
-      <c r="B154" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>10</v>
+      <c r="B154" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="2"/>
@@ -4266,14 +4245,14 @@
       <c r="I154" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="9">
+      <c r="A155" s="10">
         <v>12</v>
       </c>
-      <c r="B155" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>152</v>
+      <c r="B155" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="4"/>
@@ -4283,14 +4262,14 @@
       <c r="I155" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
-      <c r="A156" s="9">
+      <c r="A156" s="10">
         <v>13</v>
       </c>
-      <c r="B156" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>153</v>
+      <c r="B156" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="4"/>
@@ -4300,54 +4279,54 @@
       <c r="I156" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="9">
+      <c r="A157" s="10">
         <v>14</v>
       </c>
-      <c r="B157" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>154</v>
+      <c r="B157" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="4"/>
       <c r="F157" s="2"/>
-      <c r="G157" s="10" t="s">
-        <v>10</v>
+      <c r="G157" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H157" s="2"/>
-      <c r="I157" s="10" t="s">
-        <v>10</v>
+      <c r="I157" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
-      <c r="A158" s="9">
+      <c r="A158" s="10">
         <v>15</v>
       </c>
-      <c r="B158" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>155</v>
+      <c r="B158" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="4"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
-      <c r="I158" s="10" t="s">
-        <v>10</v>
+      <c r="I158" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
-      <c r="A159" s="9">
+      <c r="A159" s="10">
         <v>16</v>
       </c>
-      <c r="B159" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>156</v>
+      <c r="B159" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="4"/>
@@ -4357,14 +4336,14 @@
       <c r="I159" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
-      <c r="A160" s="9">
+      <c r="A160" s="10">
         <v>17</v>
       </c>
-      <c r="B160" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>157</v>
+      <c r="B160" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="4"/>
@@ -4374,14 +4353,14 @@
       <c r="I160" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
-      <c r="A161" s="9">
+      <c r="A161" s="10">
         <v>18</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>158</v>
+      <c r="B161" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="4"/>
@@ -4391,14 +4370,14 @@
       <c r="I161" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
-      <c r="A162" s="9">
-        <v>19</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>159</v>
+      <c r="A162" s="10">
+        <v>19</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="4"/>
@@ -4408,14 +4387,14 @@
       <c r="I162" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
-      <c r="A163" s="9">
+      <c r="A163" s="10">
         <v>20</v>
       </c>
-      <c r="B163" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>160</v>
+      <c r="B163" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="4"/>
@@ -4425,14 +4404,14 @@
       <c r="I163" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
-      <c r="A164" s="9">
+      <c r="A164" s="10">
         <v>21</v>
       </c>
-      <c r="B164" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C164" s="19" t="s">
-        <v>161</v>
+      <c r="B164" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="4"/>
@@ -4442,37 +4421,37 @@
       <c r="I164" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
-      <c r="A165" s="9">
+      <c r="A165" s="10">
         <v>22</v>
       </c>
-      <c r="B165" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C165" s="19" t="s">
-        <v>162</v>
+      <c r="B165" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="4"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
-      <c r="I165" s="7" t="s">
-        <v>10</v>
+      <c r="I165" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
-      <c r="A166" s="9">
+      <c r="A166" s="10">
         <v>23</v>
       </c>
-      <c r="B166" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>163</v>
+      <c r="B166" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="D166" s="2"/>
-      <c r="E166" s="10" t="s">
-        <v>10</v>
+      <c r="E166" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -4480,14 +4459,14 @@
       <c r="I166" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
-      <c r="A167" s="9">
+      <c r="A167" s="10">
         <v>24</v>
       </c>
-      <c r="B167" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C167" s="19" t="s">
-        <v>164</v>
+      <c r="B167" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="4"/>
@@ -4497,14 +4476,14 @@
       <c r="I167" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
-      <c r="A168" s="9">
+      <c r="A168" s="10">
         <v>25</v>
       </c>
-      <c r="B168" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C168" s="19" t="s">
-        <v>165</v>
+      <c r="B168" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="4"/>
@@ -4514,14 +4493,14 @@
       <c r="I168" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
-      <c r="A169" s="9">
+      <c r="A169" s="10">
         <v>26</v>
       </c>
-      <c r="B169" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>166</v>
+      <c r="B169" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="4"/>
@@ -4531,119 +4510,119 @@
       <c r="I169" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
-      <c r="A170" s="9">
+      <c r="A170" s="10">
         <v>27</v>
       </c>
-      <c r="B170" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C170" s="19" t="s">
-        <v>167</v>
+      <c r="B170" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="4"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
-      <c r="I170" s="10" t="s">
-        <v>10</v>
+      <c r="I170" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
-      <c r="A171" s="9">
+      <c r="A171" s="10">
         <v>28</v>
       </c>
-      <c r="B171" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>168</v>
+      <c r="B171" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="4"/>
-      <c r="F171" s="10" t="s">
-        <v>10</v>
+      <c r="F171" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G171" s="2"/>
-      <c r="H171" s="10" t="s">
-        <v>10</v>
+      <c r="H171" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I171" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
-      <c r="A172" s="9">
+      <c r="A172" s="10">
         <v>29</v>
       </c>
-      <c r="B172" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>169</v>
+      <c r="B172" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="D172" s="2"/>
-      <c r="E172" s="10" t="s">
-        <v>10</v>
+      <c r="E172" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
-      <c r="H172" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I172" s="10" t="s">
-        <v>10</v>
+      <c r="H172" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I172" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
-      <c r="A173" s="9">
+      <c r="A173" s="10">
         <v>30</v>
       </c>
-      <c r="B173" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C173" s="19" t="s">
-        <v>170</v>
+      <c r="B173" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="4"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-      <c r="H173" s="10" t="s">
-        <v>10</v>
+      <c r="H173" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I173" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
-      <c r="A174" s="9">
+      <c r="A174" s="10">
         <v>31</v>
       </c>
-      <c r="B174" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C174" s="19" t="s">
-        <v>171</v>
+      <c r="B174" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="4"/>
       <c r="F174" s="2"/>
-      <c r="G174" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H174" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I174" s="10" t="s">
-        <v>10</v>
+      <c r="G174" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I174" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
-      <c r="A175" s="9">
+      <c r="A175" s="10">
         <v>32</v>
       </c>
-      <c r="B175" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C175" s="19" t="s">
-        <v>172</v>
+      <c r="B175" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="4"/>
@@ -4653,14 +4632,14 @@
       <c r="I175" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
-      <c r="A176" s="9">
+      <c r="A176" s="10">
         <v>33</v>
       </c>
-      <c r="B176" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C176" s="19" t="s">
-        <v>173</v>
+      <c r="B176" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="4"/>
@@ -4670,37 +4649,37 @@
       <c r="I176" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
-      <c r="A177" s="9">
+      <c r="A177" s="10">
         <v>34</v>
       </c>
-      <c r="B177" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>174</v>
+      <c r="B177" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="4"/>
-      <c r="F177" s="10" t="s">
-        <v>10</v>
+      <c r="F177" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
-      <c r="A178" s="9">
+      <c r="A178" s="10">
         <v>35</v>
       </c>
-      <c r="B178" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C178" s="19" t="s">
-        <v>175</v>
+      <c r="B178" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="D178" s="2"/>
-      <c r="E178" s="10" t="s">
-        <v>10</v>
+      <c r="E178" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -4708,33 +4687,33 @@
       <c r="I178" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
-      <c r="A179" s="9">
+      <c r="A179" s="10">
         <v>36</v>
       </c>
-      <c r="B179" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>176</v>
+      <c r="B179" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="4"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
-      <c r="H179" s="10" t="s">
-        <v>10</v>
+      <c r="H179" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I179" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
-      <c r="A180" s="9">
+      <c r="A180" s="10">
         <v>37</v>
       </c>
-      <c r="B180" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>177</v>
+      <c r="B180" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="4"/>
@@ -4744,35 +4723,35 @@
       <c r="I180" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
-      <c r="A181" s="9">
+      <c r="A181" s="10">
         <v>38</v>
       </c>
-      <c r="B181" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>178</v>
+      <c r="B181" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="4"/>
-      <c r="F181" s="10" t="s">
-        <v>10</v>
+      <c r="F181" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
-      <c r="I181" s="10" t="s">
-        <v>10</v>
+      <c r="I181" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
-      <c r="A182" s="9">
+      <c r="A182" s="10">
         <v>39</v>
       </c>
-      <c r="B182" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>179</v>
+      <c r="B182" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="4"/>
@@ -4782,130 +4761,130 @@
       <c r="I182" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
-      <c r="A183" s="9">
+      <c r="A183" s="10">
         <v>40</v>
       </c>
-      <c r="B183" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C183" s="19" t="s">
-        <v>180</v>
+      <c r="B183" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="4"/>
       <c r="F183" s="2"/>
-      <c r="G183" s="10" t="s">
-        <v>10</v>
+      <c r="G183" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
-      <c r="A184" s="9">
+      <c r="A184" s="10">
         <v>41</v>
       </c>
-      <c r="B184" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C184" s="19" t="s">
-        <v>181</v>
+      <c r="B184" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="4"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
-      <c r="H184" s="10" t="s">
-        <v>10</v>
+      <c r="H184" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I184" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
-      <c r="A185" s="9">
+      <c r="A185" s="10">
         <v>42</v>
       </c>
-      <c r="B185" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C185" s="19" t="s">
-        <v>182</v>
+      <c r="B185" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="4"/>
-      <c r="F185" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="10" t="s">
-        <v>10</v>
+      <c r="F185" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
-      <c r="A186" s="9">
+      <c r="A186" s="10">
         <v>43</v>
       </c>
-      <c r="B186" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C186" s="19" t="s">
-        <v>183</v>
+      <c r="B186" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="4"/>
-      <c r="F186" s="10" t="s">
-        <v>10</v>
+      <c r="F186" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
-      <c r="A187" s="9">
+      <c r="A187" s="10">
         <v>44</v>
       </c>
-      <c r="B187" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>184</v>
+      <c r="B187" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="4"/>
-      <c r="F187" s="10" t="s">
-        <v>10</v>
+      <c r="F187" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
-      <c r="A188" s="9">
+      <c r="A188" s="10">
         <v>45</v>
       </c>
-      <c r="B188" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>185</v>
+      <c r="B188" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="4"/>
-      <c r="F188" s="10" t="s">
-        <v>10</v>
+      <c r="F188" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
-      <c r="A189" s="9">
+      <c r="A189" s="10">
         <v>46</v>
       </c>
-      <c r="B189" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C189" s="11" t="s">
-        <v>186</v>
+      <c r="B189" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="4"/>
@@ -4915,33 +4894,33 @@
       <c r="I189" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
-      <c r="A190" s="9">
+      <c r="A190" s="10">
         <v>47</v>
       </c>
-      <c r="B190" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>187</v>
+      <c r="B190" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="4"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
-      <c r="I190" s="10" t="s">
-        <v>10</v>
+      <c r="I190" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
-      <c r="A191" s="9">
+      <c r="A191" s="10">
         <v>48</v>
       </c>
-      <c r="B191" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>188</v>
+      <c r="B191" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="4"/>
@@ -4951,7 +4930,7 @@
       <c r="I191" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
-      <c r="A192" s="2"/>
+      <c r="A192" s="6"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -4962,10 +4941,10 @@
       <c r="I192" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
-      <c r="A193" s="2"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="10" t="s">
-        <v>189</v>
+      <c r="A193" s="6"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="4"/>
@@ -4975,37 +4954,37 @@
       <c r="I193" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
-      <c r="A194" s="9">
+      <c r="A194" s="10">
         <v>1</v>
       </c>
-      <c r="B194" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>190</v>
+      <c r="B194" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="4"/>
       <c r="F194" s="2"/>
-      <c r="G194" s="10" t="s">
-        <v>10</v>
+      <c r="G194" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
-      <c r="A195" s="9">
+      <c r="A195" s="10">
         <v>2</v>
       </c>
-      <c r="B195" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>191</v>
+      <c r="B195" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="D195" s="2"/>
-      <c r="E195" s="10" t="s">
-        <v>10</v>
+      <c r="E195" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -5013,14 +4992,14 @@
       <c r="I195" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
-      <c r="A196" s="9">
+      <c r="A196" s="10">
         <v>3</v>
       </c>
-      <c r="B196" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>192</v>
+      <c r="B196" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="4"/>
@@ -5030,33 +5009,33 @@
       <c r="I196" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
-      <c r="A197" s="9">
+      <c r="A197" s="10">
         <v>4</v>
       </c>
-      <c r="B197" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>193</v>
+      <c r="B197" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="4"/>
       <c r="F197" s="2"/>
-      <c r="G197" s="10" t="s">
-        <v>10</v>
+      <c r="G197" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
-      <c r="A198" s="9">
+      <c r="A198" s="10">
         <v>5</v>
       </c>
-      <c r="B198" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>194</v>
+      <c r="B198" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="4"/>
@@ -5066,14 +5045,14 @@
       <c r="I198" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
-      <c r="A199" s="9">
+      <c r="A199" s="10">
         <v>6</v>
       </c>
-      <c r="B199" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>195</v>
+      <c r="B199" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="4"/>
@@ -5083,14 +5062,14 @@
       <c r="I199" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
-      <c r="A200" s="9">
-        <v>7</v>
-      </c>
-      <c r="B200" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="11" t="s">
-        <v>196</v>
+      <c r="A200" s="10">
+        <v>7</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="4"/>
@@ -5100,18 +5079,18 @@
       <c r="I200" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
-      <c r="A201" s="9">
+      <c r="A201" s="10">
         <v>8</v>
       </c>
-      <c r="B201" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C201" s="11" t="s">
-        <v>197</v>
+      <c r="B201" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="D201" s="2"/>
-      <c r="E201" s="10" t="s">
-        <v>10</v>
+      <c r="E201" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
@@ -5119,18 +5098,18 @@
       <c r="I201" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
-      <c r="A202" s="9">
-        <v>9</v>
-      </c>
-      <c r="B202" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>198</v>
+      <c r="A202" s="10">
+        <v>9</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="D202" s="2"/>
-      <c r="E202" s="10" t="s">
-        <v>10</v>
+      <c r="E202" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -5138,18 +5117,18 @@
       <c r="I202" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
-      <c r="A203" s="9">
+      <c r="A203" s="10">
         <v>10</v>
       </c>
-      <c r="B203" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>199</v>
+      <c r="B203" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="D203" s="2"/>
-      <c r="E203" s="10" t="s">
-        <v>10</v>
+      <c r="E203" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
@@ -5157,35 +5136,35 @@
       <c r="I203" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
-      <c r="A204" s="9">
+      <c r="A204" s="10">
         <v>11</v>
       </c>
-      <c r="B204" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>200</v>
+      <c r="B204" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D204" s="2"/>
-      <c r="E204" s="10" t="s">
-        <v>10</v>
+      <c r="E204" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F204" s="2"/>
-      <c r="G204" s="10" t="s">
-        <v>10</v>
+      <c r="G204" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
-      <c r="A205" s="9">
+      <c r="A205" s="10">
         <v>12</v>
       </c>
-      <c r="B205" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>201</v>
+      <c r="B205" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="4"/>
@@ -5195,14 +5174,14 @@
       <c r="I205" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
-      <c r="A206" s="9">
+      <c r="A206" s="10">
         <v>13</v>
       </c>
-      <c r="B206" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C206" s="11" t="s">
-        <v>202</v>
+      <c r="B206" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="4"/>
@@ -5212,18 +5191,18 @@
       <c r="I206" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
-      <c r="A207" s="9">
+      <c r="A207" s="10">
         <v>14</v>
       </c>
-      <c r="B207" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C207" s="11" t="s">
-        <v>203</v>
+      <c r="B207" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="D207" s="2"/>
-      <c r="E207" s="10" t="s">
-        <v>10</v>
+      <c r="E207" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
@@ -5231,14 +5210,14 @@
       <c r="I207" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
-      <c r="A208" s="9">
+      <c r="A208" s="10">
         <v>15</v>
       </c>
-      <c r="B208" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C208" s="11" t="s">
-        <v>204</v>
+      <c r="B208" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="4"/>
@@ -5248,14 +5227,14 @@
       <c r="I208" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
-      <c r="A209" s="9">
+      <c r="A209" s="10">
         <v>16</v>
       </c>
-      <c r="B209" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C209" s="11" t="s">
-        <v>205</v>
+      <c r="B209" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="4"/>
@@ -5265,14 +5244,14 @@
       <c r="I209" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
-      <c r="A210" s="9">
+      <c r="A210" s="10">
         <v>17</v>
       </c>
-      <c r="B210" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>206</v>
+      <c r="B210" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="4"/>
@@ -5282,14 +5261,14 @@
       <c r="I210" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
-      <c r="A211" s="9">
+      <c r="A211" s="10">
         <v>18</v>
       </c>
-      <c r="B211" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C211" s="11" t="s">
-        <v>207</v>
+      <c r="B211" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="4"/>
@@ -5299,14 +5278,14 @@
       <c r="I211" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
-      <c r="A212" s="9">
-        <v>19</v>
-      </c>
-      <c r="B212" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C212" s="11" t="s">
-        <v>208</v>
+      <c r="A212" s="10">
+        <v>19</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="4"/>
@@ -5316,33 +5295,33 @@
       <c r="I212" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
-      <c r="A213" s="9">
+      <c r="A213" s="10">
         <v>20</v>
       </c>
-      <c r="B213" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>209</v>
+      <c r="B213" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="4"/>
       <c r="F213" s="2"/>
-      <c r="G213" s="10" t="s">
-        <v>10</v>
+      <c r="G213" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
-      <c r="A214" s="9">
+      <c r="A214" s="10">
         <v>21</v>
       </c>
-      <c r="B214" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C214" s="11" t="s">
-        <v>210</v>
+      <c r="B214" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="4"/>
@@ -5352,14 +5331,14 @@
       <c r="I214" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
-      <c r="A215" s="9">
+      <c r="A215" s="10">
         <v>22</v>
       </c>
-      <c r="B215" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C215" s="11" t="s">
-        <v>211</v>
+      <c r="B215" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="4"/>
@@ -5369,14 +5348,14 @@
       <c r="I215" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
-      <c r="A216" s="9">
+      <c r="A216" s="10">
         <v>23</v>
       </c>
-      <c r="B216" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C216" s="11" t="s">
-        <v>212</v>
+      <c r="B216" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="4"/>
@@ -5386,54 +5365,54 @@
       <c r="I216" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
-      <c r="A217" s="9">
+      <c r="A217" s="10">
         <v>24</v>
       </c>
-      <c r="B217" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C217" s="11" t="s">
-        <v>213</v>
+      <c r="B217" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="4"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
-      <c r="I217" s="10" t="s">
-        <v>10</v>
+      <c r="I217" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
-      <c r="A218" s="9">
+      <c r="A218" s="10">
         <v>25</v>
       </c>
-      <c r="B218" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>214</v>
+      <c r="B218" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="4"/>
-      <c r="F218" s="10" t="s">
-        <v>10</v>
+      <c r="F218" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G218" s="2"/>
-      <c r="H218" s="10" t="s">
-        <v>10</v>
+      <c r="H218" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I218" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
-      <c r="A219" s="9">
+      <c r="A219" s="10">
         <v>26</v>
       </c>
-      <c r="B219" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>215</v>
+      <c r="B219" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="4"/>
@@ -5443,14 +5422,14 @@
       <c r="I219" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
-      <c r="A220" s="9">
+      <c r="A220" s="10">
         <v>27</v>
       </c>
-      <c r="B220" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C220" s="11" t="s">
-        <v>216</v>
+      <c r="B220" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="4"/>
@@ -5460,18 +5439,18 @@
       <c r="I220" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
-      <c r="A221" s="9">
+      <c r="A221" s="10">
         <v>28</v>
       </c>
-      <c r="B221" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C221" s="11" t="s">
-        <v>217</v>
+      <c r="B221" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="D221" s="2"/>
-      <c r="E221" s="10" t="s">
-        <v>10</v>
+      <c r="E221" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
@@ -5479,14 +5458,14 @@
       <c r="I221" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
-      <c r="A222" s="9">
+      <c r="A222" s="10">
         <v>29</v>
       </c>
-      <c r="B222" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C222" s="11" t="s">
-        <v>218</v>
+      <c r="B222" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="4"/>
@@ -5496,115 +5475,115 @@
       <c r="I222" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
-      <c r="A223" s="9">
+      <c r="A223" s="10">
         <v>30</v>
       </c>
-      <c r="B223" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C223" s="11" t="s">
-        <v>219</v>
+      <c r="B223" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="4"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
-      <c r="H223" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I223" s="10" t="s">
-        <v>10</v>
+      <c r="H223" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I223" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
-      <c r="A224" s="9">
+      <c r="A224" s="10">
         <v>31</v>
       </c>
-      <c r="B224" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C224" s="11" t="s">
-        <v>220</v>
+      <c r="B224" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="4"/>
       <c r="F224" s="2"/>
-      <c r="G224" s="10" t="s">
-        <v>10</v>
+      <c r="G224" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
-      <c r="A225" s="9">
+      <c r="A225" s="10">
         <v>32</v>
       </c>
-      <c r="B225" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C225" s="11" t="s">
-        <v>221</v>
+      <c r="B225" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="4"/>
       <c r="F225" s="2"/>
-      <c r="G225" s="10" t="s">
-        <v>10</v>
+      <c r="G225" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H225" s="2"/>
-      <c r="I225" s="7" t="s">
+      <c r="I225" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+      <c r="A226" s="10">
+        <v>33</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C226" s="12" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
-      <c r="A226" s="9">
-        <v>33</v>
-      </c>
-      <c r="B226" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C226" s="11" t="s">
-        <v>223</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="4"/>
       <c r="F226" s="2"/>
-      <c r="G226" s="10"/>
+      <c r="G226" s="11"/>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
-      <c r="A227" s="9">
+      <c r="A227" s="10">
         <v>34</v>
       </c>
-      <c r="B227" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C227" s="11" t="s">
-        <v>224</v>
+      <c r="B227" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="4"/>
       <c r="F227" s="2"/>
-      <c r="G227" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H227" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I227" s="10" t="s">
-        <v>10</v>
+      <c r="G227" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H227" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I227" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
-      <c r="A228" s="9">
+      <c r="A228" s="10">
         <v>35</v>
       </c>
-      <c r="B228" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C228" s="11" t="s">
-        <v>225</v>
+      <c r="B228" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="4"/>
@@ -5614,14 +5593,14 @@
       <c r="I228" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
-      <c r="A229" s="9">
+      <c r="A229" s="10">
         <v>36</v>
       </c>
-      <c r="B229" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>226</v>
+      <c r="B229" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="4"/>
@@ -5631,14 +5610,14 @@
       <c r="I229" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
-      <c r="A230" s="9">
+      <c r="A230" s="10">
         <v>37</v>
       </c>
-      <c r="B230" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C230" s="11" t="s">
-        <v>227</v>
+      <c r="B230" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="4"/>
@@ -5648,9 +5627,9 @@
       <c r="I230" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
-      <c r="A231" s="2"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="7"/>
+      <c r="A231" s="6"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
       <c r="D231" s="2"/>
       <c r="E231" s="4"/>
       <c r="F231" s="2"/>
@@ -5659,10 +5638,10 @@
       <c r="I231" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
-      <c r="A232" s="2"/>
-      <c r="B232" s="7"/>
-      <c r="C232" s="23" t="s">
-        <v>228</v>
+      <c r="A232" s="6"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="4"/>
@@ -5672,14 +5651,14 @@
       <c r="I232" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
-      <c r="A233" s="9">
+      <c r="A233" s="10">
         <v>1</v>
       </c>
-      <c r="B233" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C233" s="11" t="s">
-        <v>229</v>
+      <c r="B233" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="4"/>
@@ -5689,18 +5668,18 @@
       <c r="I233" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
-      <c r="A234" s="9">
+      <c r="A234" s="10">
         <v>2</v>
       </c>
-      <c r="B234" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C234" s="11" t="s">
-        <v>230</v>
+      <c r="B234" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D234" s="2"/>
-      <c r="E234" s="10" t="s">
-        <v>10</v>
+      <c r="E234" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
@@ -5708,18 +5687,18 @@
       <c r="I234" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
-      <c r="A235" s="9">
+      <c r="A235" s="10">
         <v>3</v>
       </c>
-      <c r="B235" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C235" s="11" t="s">
-        <v>231</v>
+      <c r="B235" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="D235" s="2"/>
-      <c r="E235" s="10" t="s">
-        <v>10</v>
+      <c r="E235" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
@@ -5727,18 +5706,18 @@
       <c r="I235" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
-      <c r="A236" s="9">
+      <c r="A236" s="10">
         <v>4</v>
       </c>
-      <c r="B236" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>232</v>
+      <c r="B236" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="D236" s="2"/>
-      <c r="E236" s="10" t="s">
-        <v>10</v>
+      <c r="E236" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
@@ -5746,18 +5725,18 @@
       <c r="I236" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
-      <c r="A237" s="9">
+      <c r="A237" s="10">
         <v>5</v>
       </c>
-      <c r="B237" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C237" s="11" t="s">
-        <v>233</v>
+      <c r="B237" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="D237" s="2"/>
-      <c r="E237" s="10" t="s">
-        <v>10</v>
+      <c r="E237" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
@@ -5765,14 +5744,14 @@
       <c r="I237" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
-      <c r="A238" s="9">
+      <c r="A238" s="10">
         <v>6</v>
       </c>
-      <c r="B238" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C238" s="11" t="s">
-        <v>234</v>
+      <c r="B238" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="4"/>
@@ -5782,9 +5761,9 @@
       <c r="I238" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
-      <c r="A239" s="2"/>
-      <c r="B239" s="7"/>
-      <c r="C239" s="7"/>
+      <c r="A239" s="6"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
       <c r="D239" s="2"/>
       <c r="E239" s="4"/>
       <c r="F239" s="2"/>
@@ -5793,10 +5772,10 @@
       <c r="I239" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
-      <c r="A240" s="2"/>
-      <c r="B240" s="7"/>
-      <c r="C240" s="18" t="s">
-        <v>235</v>
+      <c r="A240" s="6"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="4"/>
@@ -5806,9 +5785,9 @@
       <c r="I240" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
-      <c r="A241" s="2"/>
-      <c r="B241" s="7"/>
-      <c r="C241" s="7"/>
+      <c r="A241" s="6"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
       <c r="D241" s="2"/>
       <c r="E241" s="4"/>
       <c r="F241" s="2"/>
@@ -5817,14 +5796,14 @@
       <c r="I241" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
-      <c r="A242" s="9">
+      <c r="A242" s="10">
         <v>1</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="B242" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C242" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="C242" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="4"/>
@@ -5834,14 +5813,14 @@
       <c r="I242" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
-      <c r="A243" s="9">
+      <c r="A243" s="10">
         <v>2</v>
       </c>
-      <c r="B243" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C243" s="19" t="s">
-        <v>238</v>
+      <c r="B243" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="4"/>
@@ -5851,14 +5830,14 @@
       <c r="I243" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
-      <c r="A244" s="9">
+      <c r="A244" s="10">
         <v>3</v>
       </c>
-      <c r="B244" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C244" s="19" t="s">
-        <v>239</v>
+      <c r="B244" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="4"/>
@@ -5868,14 +5847,14 @@
       <c r="I244" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
-      <c r="A245" s="9">
+      <c r="A245" s="10">
         <v>4</v>
       </c>
-      <c r="B245" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C245" s="19" t="s">
-        <v>240</v>
+      <c r="B245" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="4"/>
@@ -5885,14 +5864,14 @@
       <c r="I245" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
-      <c r="A246" s="9">
+      <c r="A246" s="10">
         <v>5</v>
       </c>
-      <c r="B246" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C246" s="19" t="s">
-        <v>241</v>
+      <c r="B246" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="4"/>
@@ -5902,14 +5881,14 @@
       <c r="I246" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
-      <c r="A247" s="9">
+      <c r="A247" s="10">
         <v>6</v>
       </c>
-      <c r="B247" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C247" s="19" t="s">
-        <v>242</v>
+      <c r="B247" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="4"/>
@@ -5919,14 +5898,14 @@
       <c r="I247" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
-      <c r="A248" s="9">
-        <v>7</v>
-      </c>
-      <c r="B248" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C248" s="19" t="s">
-        <v>243</v>
+      <c r="A248" s="10">
+        <v>7</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="4"/>
@@ -5936,14 +5915,14 @@
       <c r="I248" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
-      <c r="A249" s="9">
+      <c r="A249" s="10">
         <v>8</v>
       </c>
-      <c r="B249" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C249" s="11" t="s">
-        <v>244</v>
+      <c r="B249" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" s="4"/>
@@ -5953,33 +5932,33 @@
       <c r="I249" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
-      <c r="A250" s="9">
-        <v>9</v>
-      </c>
-      <c r="B250" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C250" s="11" t="s">
-        <v>245</v>
+      <c r="A250" s="10">
+        <v>9</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="4"/>
       <c r="F250" s="2"/>
-      <c r="G250" s="10" t="s">
-        <v>10</v>
+      <c r="G250" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
-      <c r="A251" s="9">
+      <c r="A251" s="10">
         <v>10</v>
       </c>
-      <c r="B251" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C251" s="19" t="s">
-        <v>246</v>
+      <c r="B251" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="4"/>
@@ -5989,14 +5968,14 @@
       <c r="I251" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
-      <c r="A252" s="9">
+      <c r="A252" s="10">
         <v>11</v>
       </c>
-      <c r="B252" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C252" s="11" t="s">
-        <v>247</v>
+      <c r="B252" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="4"/>
@@ -6006,18 +5985,18 @@
       <c r="I252" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
-      <c r="A253" s="9">
+      <c r="A253" s="10">
         <v>12</v>
       </c>
-      <c r="B253" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C253" s="11" t="s">
-        <v>248</v>
+      <c r="B253" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="D253" s="2"/>
-      <c r="E253" s="10" t="s">
-        <v>10</v>
+      <c r="E253" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
@@ -6025,14 +6004,14 @@
       <c r="I253" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
-      <c r="A254" s="9">
+      <c r="A254" s="10">
         <v>13</v>
       </c>
-      <c r="B254" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C254" s="11" t="s">
-        <v>249</v>
+      <c r="B254" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="4"/>
@@ -6042,14 +6021,14 @@
       <c r="I254" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
-      <c r="A255" s="9">
+      <c r="A255" s="10">
         <v>14</v>
       </c>
-      <c r="B255" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C255" s="11" t="s">
-        <v>250</v>
+      <c r="B255" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="4"/>
@@ -6059,9 +6038,9 @@
       <c r="I255" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
-      <c r="A256" s="2"/>
-      <c r="B256" s="7"/>
-      <c r="C256" s="7"/>
+      <c r="A256" s="6"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="8"/>
       <c r="D256" s="2"/>
       <c r="E256" s="4"/>
       <c r="F256" s="2"/>
@@ -6070,10 +6049,10 @@
       <c r="I256" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
-      <c r="A257" s="2"/>
-      <c r="B257" s="7"/>
-      <c r="C257" s="23" t="s">
-        <v>251</v>
+      <c r="A257" s="6"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="4"/>
@@ -6083,14 +6062,14 @@
       <c r="I257" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
-      <c r="A258" s="9">
+      <c r="A258" s="10">
         <v>1</v>
       </c>
-      <c r="B258" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C258" s="11" t="s">
-        <v>252</v>
+      <c r="B258" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="4"/>
@@ -6100,71 +6079,71 @@
       <c r="I258" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
-      <c r="A259" s="9">
+      <c r="A259" s="10">
         <v>2</v>
       </c>
-      <c r="B259" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C259" s="11" t="s">
-        <v>253</v>
+      <c r="B259" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="4"/>
-      <c r="F259" s="10" t="s">
-        <v>10</v>
+      <c r="F259" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
-      <c r="A260" s="9">
+      <c r="A260" s="10">
         <v>3</v>
       </c>
-      <c r="B260" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C260" s="11" t="s">
-        <v>254</v>
+      <c r="B260" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="4"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
-      <c r="I260" s="10" t="s">
-        <v>10</v>
+      <c r="I260" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
-      <c r="A261" s="9">
+      <c r="A261" s="10">
         <v>4</v>
       </c>
-      <c r="B261" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C261" s="11" t="s">
-        <v>255</v>
+      <c r="B261" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="4"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
-      <c r="H261" s="10" t="s">
-        <v>10</v>
+      <c r="H261" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I261" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
-      <c r="A262" s="9">
+      <c r="A262" s="10">
         <v>5</v>
       </c>
-      <c r="B262" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C262" s="19" t="s">
-        <v>256</v>
+      <c r="B262" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="4"/>
@@ -6174,14 +6153,14 @@
       <c r="I262" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
-      <c r="A263" s="9">
+      <c r="A263" s="10">
         <v>6</v>
       </c>
-      <c r="B263" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C263" s="11" t="s">
-        <v>257</v>
+      <c r="B263" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="4"/>
@@ -6191,18 +6170,18 @@
       <c r="I263" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
-      <c r="A264" s="9">
-        <v>7</v>
-      </c>
-      <c r="B264" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C264" s="19" t="s">
-        <v>258</v>
+      <c r="A264" s="10">
+        <v>7</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="D264" s="2"/>
-      <c r="E264" s="10" t="s">
-        <v>10</v>
+      <c r="E264" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
@@ -6210,18 +6189,18 @@
       <c r="I264" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
-      <c r="A265" s="9">
+      <c r="A265" s="10">
         <v>8</v>
       </c>
-      <c r="B265" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C265" s="11" t="s">
-        <v>259</v>
+      <c r="B265" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="D265" s="2"/>
-      <c r="E265" s="10" t="s">
-        <v>10</v>
+      <c r="E265" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
@@ -6229,128 +6208,128 @@
       <c r="I265" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
-      <c r="A266" s="9">
-        <v>9</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C266" s="11" t="s">
-        <v>260</v>
+      <c r="A266" s="10">
+        <v>9</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="D266" s="2"/>
-      <c r="E266" s="10"/>
+      <c r="E266" s="11"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
-      <c r="I266" s="10" t="s">
+      <c r="I266" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
+      <c r="A267" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
-      <c r="A267" s="9">
-        <v>10</v>
-      </c>
-      <c r="B267" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C267" s="11" t="s">
-        <v>261</v>
+      <c r="B267" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="D267" s="2"/>
-      <c r="E267" s="10" t="s">
-        <v>10</v>
+      <c r="E267" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
-      <c r="H267" s="10" t="s">
-        <v>10</v>
+      <c r="H267" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I267" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
-      <c r="A268" s="9">
+      <c r="A268" s="10">
         <v>11</v>
       </c>
-      <c r="B268" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C268" s="11" t="s">
-        <v>262</v>
+      <c r="B268" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="4"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
-      <c r="H268" s="10" t="s">
-        <v>10</v>
+      <c r="H268" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I268" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
-      <c r="A269" s="9">
+      <c r="A269" s="10">
         <v>12</v>
       </c>
-      <c r="B269" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C269" s="19" t="s">
-        <v>263</v>
+      <c r="B269" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="4"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
-      <c r="H269" s="10"/>
+      <c r="H269" s="11"/>
       <c r="I269" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
-      <c r="A270" s="9">
+      <c r="A270" s="10">
         <v>13</v>
       </c>
-      <c r="B270" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C270" s="11" t="s">
-        <v>264</v>
+      <c r="B270" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="4"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
-      <c r="H270" s="10" t="s">
-        <v>10</v>
+      <c r="H270" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I270" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
-      <c r="A271" s="9">
+      <c r="A271" s="10">
         <v>14</v>
       </c>
-      <c r="B271" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C271" s="19" t="s">
-        <v>265</v>
+      <c r="B271" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="4"/>
-      <c r="F271" s="10" t="s">
-        <v>10</v>
+      <c r="F271" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
-      <c r="A272" s="9">
+      <c r="A272" s="10">
         <v>15</v>
       </c>
-      <c r="B272" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C272" s="11" t="s">
-        <v>266</v>
+      <c r="B272" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="4"/>
@@ -6360,14 +6339,14 @@
       <c r="I272" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
-      <c r="A273" s="9">
+      <c r="A273" s="10">
         <v>16</v>
       </c>
-      <c r="B273" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C273" s="11" t="s">
-        <v>267</v>
+      <c r="B273" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="4"/>
@@ -6377,14 +6356,14 @@
       <c r="I273" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
-      <c r="A274" s="9">
+      <c r="A274" s="10">
         <v>17</v>
       </c>
-      <c r="B274" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C274" s="11" t="s">
-        <v>268</v>
+      <c r="B274" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="4"/>
@@ -6394,14 +6373,14 @@
       <c r="I274" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
-      <c r="A275" s="9">
+      <c r="A275" s="10">
         <v>18</v>
       </c>
-      <c r="B275" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C275" s="11" t="s">
-        <v>269</v>
+      <c r="B275" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="4"/>
@@ -6411,33 +6390,33 @@
       <c r="I275" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
-      <c r="A276" s="9">
-        <v>19</v>
-      </c>
-      <c r="B276" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C276" s="19" t="s">
-        <v>270</v>
+      <c r="A276" s="10">
+        <v>19</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="4"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
-      <c r="H276" s="10" t="s">
-        <v>10</v>
+      <c r="H276" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I276" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
-      <c r="A277" s="9">
+      <c r="A277" s="10">
         <v>20</v>
       </c>
-      <c r="B277" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C277" s="11" t="s">
-        <v>271</v>
+      <c r="B277" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="4"/>
@@ -6447,14 +6426,14 @@
       <c r="I277" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
-      <c r="A278" s="9">
+      <c r="A278" s="10">
         <v>21</v>
       </c>
-      <c r="B278" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C278" s="19" t="s">
-        <v>272</v>
+      <c r="B278" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="4"/>
@@ -6464,33 +6443,33 @@
       <c r="I278" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
-      <c r="A279" s="9">
+      <c r="A279" s="10">
         <v>22</v>
       </c>
-      <c r="B279" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C279" s="19" t="s">
-        <v>273</v>
+      <c r="B279" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="4"/>
-      <c r="F279" s="10" t="s">
-        <v>10</v>
+      <c r="F279" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
-      <c r="A280" s="9">
+      <c r="A280" s="10">
         <v>23</v>
       </c>
-      <c r="B280" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C280" s="19" t="s">
-        <v>274</v>
+      <c r="B280" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="4"/>
@@ -6500,37 +6479,37 @@
       <c r="I280" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
-      <c r="A281" s="9">
+      <c r="A281" s="10">
         <v>24</v>
       </c>
-      <c r="B281" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C281" s="11" t="s">
-        <v>275</v>
+      <c r="B281" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="4"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
-      <c r="I281" s="10" t="s">
-        <v>10</v>
+      <c r="I281" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
-      <c r="A282" s="9">
+      <c r="A282" s="10">
         <v>25</v>
       </c>
-      <c r="B282" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C282" s="11" t="s">
-        <v>276</v>
+      <c r="B282" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="D282" s="2"/>
-      <c r="E282" s="10" t="s">
-        <v>10</v>
+      <c r="E282" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
@@ -6538,18 +6517,18 @@
       <c r="I282" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
-      <c r="A283" s="9">
+      <c r="A283" s="10">
         <v>26</v>
       </c>
-      <c r="B283" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C283" s="19" t="s">
-        <v>277</v>
+      <c r="B283" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="D283" s="2"/>
-      <c r="E283" s="10" t="s">
-        <v>10</v>
+      <c r="E283" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
@@ -6557,18 +6536,18 @@
       <c r="I283" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
-      <c r="A284" s="9">
+      <c r="A284" s="10">
         <v>27</v>
       </c>
-      <c r="B284" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C284" s="19" t="s">
-        <v>278</v>
+      <c r="B284" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="D284" s="2"/>
-      <c r="E284" s="10" t="s">
-        <v>10</v>
+      <c r="E284" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
@@ -6576,18 +6555,18 @@
       <c r="I284" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
-      <c r="A285" s="9">
+      <c r="A285" s="10">
         <v>28</v>
       </c>
-      <c r="B285" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C285" s="11" t="s">
-        <v>279</v>
+      <c r="B285" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="D285" s="2"/>
-      <c r="E285" s="10" t="s">
-        <v>10</v>
+      <c r="E285" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
@@ -6595,14 +6574,14 @@
       <c r="I285" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
-      <c r="A286" s="9">
+      <c r="A286" s="10">
         <v>29</v>
       </c>
-      <c r="B286" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C286" s="19" t="s">
-        <v>280</v>
+      <c r="B286" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="4"/>
@@ -6612,14 +6591,14 @@
       <c r="I286" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
-      <c r="A287" s="9">
+      <c r="A287" s="10">
         <v>30</v>
       </c>
-      <c r="B287" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C287" s="19" t="s">
-        <v>281</v>
+      <c r="B287" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="4"/>
@@ -6629,23 +6608,23 @@
       <c r="I287" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
-      <c r="A288" s="2"/>
-      <c r="B288" s="7"/>
-      <c r="C288" s="7"/>
+      <c r="A288" s="6"/>
+      <c r="B288" s="8"/>
+      <c r="C288" s="8"/>
       <c r="D288" s="2"/>
       <c r="E288" s="4"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
-      <c r="I288" s="10" t="s">
-        <v>10</v>
+      <c r="I288" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
-      <c r="A289" s="2"/>
-      <c r="B289" s="7"/>
-      <c r="C289" s="19" t="s">
-        <v>282</v>
+      <c r="A289" s="6"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="4"/>
@@ -6655,33 +6634,33 @@
       <c r="I289" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
-      <c r="A290" s="9">
+      <c r="A290" s="10">
         <v>1</v>
       </c>
-      <c r="B290" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C290" s="19" t="s">
-        <v>16</v>
+      <c r="B290" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="4"/>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
-      <c r="H290" s="10" t="s">
-        <v>10</v>
+      <c r="H290" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I290" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
-      <c r="A291" s="9">
+      <c r="A291" s="10">
         <v>2</v>
       </c>
-      <c r="B291" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C291" s="19" t="s">
-        <v>283</v>
+      <c r="B291" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="4"/>
@@ -6691,14 +6670,14 @@
       <c r="I291" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
-      <c r="A292" s="9">
+      <c r="A292" s="10">
         <v>3</v>
       </c>
-      <c r="B292" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C292" s="19" t="s">
-        <v>284</v>
+      <c r="B292" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="4"/>
@@ -6708,9 +6687,9 @@
       <c r="I292" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
-      <c r="A293" s="2"/>
-      <c r="B293" s="7"/>
-      <c r="C293" s="7"/>
+      <c r="A293" s="6"/>
+      <c r="B293" s="8"/>
+      <c r="C293" s="8"/>
       <c r="D293" s="2"/>
       <c r="E293" s="4"/>
       <c r="F293" s="2"/>
@@ -6719,9 +6698,9 @@
       <c r="I293" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
-      <c r="A294" s="2"/>
-      <c r="B294" s="7"/>
-      <c r="C294" s="7"/>
+      <c r="A294" s="6"/>
+      <c r="B294" s="8"/>
+      <c r="C294" s="8"/>
       <c r="D294" s="2"/>
       <c r="E294" s="4"/>
       <c r="F294" s="2"/>
@@ -6730,10 +6709,10 @@
       <c r="I294" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
-      <c r="A295" s="2"/>
-      <c r="B295" s="7"/>
-      <c r="C295" s="19" t="s">
-        <v>285</v>
+      <c r="A295" s="6"/>
+      <c r="B295" s="8"/>
+      <c r="C295" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="4"/>
@@ -6743,14 +6722,14 @@
       <c r="I295" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
-      <c r="A296" s="9">
+      <c r="A296" s="10">
         <v>1</v>
       </c>
-      <c r="B296" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C296" s="19" t="s">
-        <v>286</v>
+      <c r="B296" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="4"/>
@@ -6760,14 +6739,14 @@
       <c r="I296" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
-      <c r="A297" s="9">
+      <c r="A297" s="10">
         <v>2</v>
       </c>
-      <c r="B297" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C297" s="11" t="s">
-        <v>287</v>
+      <c r="B297" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="4"/>
@@ -6777,33 +6756,33 @@
       <c r="I297" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
-      <c r="A298" s="9">
+      <c r="A298" s="10">
         <v>3</v>
       </c>
-      <c r="B298" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C298" s="19" t="s">
-        <v>288</v>
+      <c r="B298" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="4"/>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
-      <c r="I298" s="10" t="s">
-        <v>10</v>
+      <c r="I298" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
-      <c r="A299" s="9">
+      <c r="A299" s="10">
         <v>4</v>
       </c>
-      <c r="B299" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C299" s="19" t="s">
-        <v>289</v>
+      <c r="B299" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="4"/>
@@ -6813,90 +6792,90 @@
       <c r="I299" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
-      <c r="A300" s="9">
+      <c r="A300" s="10">
         <v>5</v>
       </c>
-      <c r="B300" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C300" s="19" t="s">
-        <v>290</v>
+      <c r="B300" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="4"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
-      <c r="H300" s="10" t="s">
-        <v>10</v>
+      <c r="H300" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I300" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
-      <c r="A301" s="9">
+      <c r="A301" s="10">
         <v>6</v>
       </c>
-      <c r="B301" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C301" s="19" t="s">
-        <v>291</v>
+      <c r="B301" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="4"/>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
-      <c r="H301" s="10" t="s">
-        <v>10</v>
+      <c r="H301" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I301" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
-      <c r="A302" s="9">
-        <v>7</v>
-      </c>
-      <c r="B302" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C302" s="11" t="s">
-        <v>292</v>
+      <c r="A302" s="10">
+        <v>7</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="4"/>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
-      <c r="H302" s="10" t="s">
-        <v>10</v>
+      <c r="H302" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I302" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
-      <c r="A303" s="9">
+      <c r="A303" s="10">
         <v>8</v>
       </c>
-      <c r="B303" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C303" s="19" t="s">
-        <v>293</v>
+      <c r="B303" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="4"/>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
-      <c r="H303" s="10" t="s">
-        <v>10</v>
+      <c r="H303" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I303" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
-      <c r="A304" s="9">
-        <v>9</v>
-      </c>
-      <c r="B304" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C304" s="19" t="s">
-        <v>294</v>
+      <c r="A304" s="10">
+        <v>9</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="4"/>
@@ -6906,14 +6885,14 @@
       <c r="I304" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
-      <c r="A305" s="9">
+      <c r="A305" s="10">
         <v>10</v>
       </c>
-      <c r="B305" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C305" s="11" t="s">
-        <v>295</v>
+      <c r="B305" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="4"/>
@@ -6923,22 +6902,22 @@
       <c r="I305" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
-      <c r="A306" s="2"/>
-      <c r="B306" s="7"/>
-      <c r="C306" s="7"/>
+      <c r="A306" s="6"/>
+      <c r="B306" s="8"/>
+      <c r="C306" s="8"/>
       <c r="D306" s="2"/>
       <c r="E306" s="4"/>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
-      <c r="I306" s="10" t="s">
-        <v>10</v>
+      <c r="I306" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
-      <c r="A307" s="2"/>
-      <c r="B307" s="7"/>
-      <c r="C307" s="7"/>
+      <c r="A307" s="6"/>
+      <c r="B307" s="8"/>
+      <c r="C307" s="8"/>
       <c r="D307" s="2"/>
       <c r="E307" s="4"/>
       <c r="F307" s="2"/>
@@ -6947,10 +6926,10 @@
       <c r="I307" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
-      <c r="A308" s="2"/>
-      <c r="B308" s="7"/>
-      <c r="C308" s="24" t="s">
-        <v>296</v>
+      <c r="A308" s="6"/>
+      <c r="B308" s="8"/>
+      <c r="C308" s="23" t="s">
+        <v>295</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="4"/>
@@ -6960,14 +6939,14 @@
       <c r="I308" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
-      <c r="A309" s="9">
+      <c r="A309" s="10">
         <v>1</v>
       </c>
-      <c r="B309" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C309" s="19" t="s">
-        <v>297</v>
+      <c r="B309" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="4"/>
@@ -6977,14 +6956,14 @@
       <c r="I309" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
-      <c r="A310" s="9">
+      <c r="A310" s="10">
         <v>2</v>
       </c>
-      <c r="B310" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C310" s="11" t="s">
-        <v>298</v>
+      <c r="B310" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>297</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="4"/>
@@ -6994,35 +6973,35 @@
       <c r="I310" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
-      <c r="A311" s="9">
+      <c r="A311" s="10">
         <v>3</v>
       </c>
-      <c r="B311" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C311" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="D311" s="10" t="s">
-        <v>10</v>
+      <c r="B311" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D311" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E311" s="4"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
-      <c r="I311" s="10" t="s">
-        <v>10</v>
+      <c r="I311" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
-      <c r="A312" s="9">
+      <c r="A312" s="10">
         <v>4</v>
       </c>
-      <c r="B312" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C312" s="19" t="s">
-        <v>300</v>
+      <c r="B312" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="4"/>
@@ -7032,14 +7011,14 @@
       <c r="I312" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
-      <c r="A313" s="9">
+      <c r="A313" s="10">
         <v>5</v>
       </c>
-      <c r="B313" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C313" s="11" t="s">
-        <v>301</v>
+      <c r="B313" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C313" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="4"/>
@@ -7049,14 +7028,14 @@
       <c r="I313" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
-      <c r="A314" s="9">
+      <c r="A314" s="10">
         <v>6</v>
       </c>
-      <c r="B314" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C314" s="19" t="s">
-        <v>302</v>
+      <c r="B314" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="4"/>
@@ -7066,33 +7045,33 @@
       <c r="I314" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
-      <c r="A315" s="9">
-        <v>7</v>
-      </c>
-      <c r="B315" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C315" s="19" t="s">
-        <v>303</v>
+      <c r="A315" s="10">
+        <v>7</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="4"/>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
-      <c r="H315" s="10" t="s">
-        <v>10</v>
+      <c r="H315" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I315" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
-      <c r="A316" s="9">
+      <c r="A316" s="10">
         <v>8</v>
       </c>
-      <c r="B316" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C316" s="19" t="s">
-        <v>304</v>
+      <c r="B316" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="4"/>
@@ -7102,17 +7081,17 @@
       <c r="I316" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
-      <c r="A317" s="9">
-        <v>9</v>
-      </c>
-      <c r="B317" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C317" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="D317" s="10" t="s">
-        <v>10</v>
+      <c r="A317" s="10">
+        <v>9</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D317" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E317" s="4"/>
       <c r="F317" s="2"/>
@@ -7121,33 +7100,33 @@
       <c r="I317" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
-      <c r="A318" s="9">
+      <c r="A318" s="10">
         <v>10</v>
       </c>
-      <c r="B318" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C318" s="19" t="s">
-        <v>306</v>
+      <c r="B318" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="4"/>
-      <c r="F318" s="10" t="s">
-        <v>10</v>
+      <c r="F318" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
-      <c r="A319" s="9">
+      <c r="A319" s="10">
         <v>11</v>
       </c>
-      <c r="B319" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C319" s="19" t="s">
-        <v>307</v>
+      <c r="B319" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="4"/>
@@ -7157,92 +7136,92 @@
       <c r="I319" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
-      <c r="A320" s="9">
+      <c r="A320" s="10">
         <v>12</v>
       </c>
-      <c r="B320" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C320" s="19" t="s">
-        <v>308</v>
+      <c r="B320" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="4"/>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
-      <c r="H320" s="10" t="s">
-        <v>10</v>
+      <c r="H320" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I320" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
-      <c r="A321" s="9">
+      <c r="A321" s="10">
         <v>13</v>
       </c>
-      <c r="B321" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C321" s="11" t="s">
-        <v>309</v>
+      <c r="B321" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C321" s="12" t="s">
+        <v>308</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="4"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
-      <c r="H321" s="10"/>
+      <c r="H321" s="11"/>
       <c r="I321" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
-      <c r="A322" s="9">
+      <c r="A322" s="10">
         <v>14</v>
       </c>
-      <c r="B322" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C322" s="11" t="s">
-        <v>310</v>
+      <c r="B322" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="4"/>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
-      <c r="H322" s="10" t="s">
-        <v>10</v>
+      <c r="H322" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I322" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
-      <c r="A323" s="9">
+      <c r="A323" s="10">
         <v>15</v>
       </c>
-      <c r="B323" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C323" s="11" t="s">
-        <v>311</v>
+      <c r="B323" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="4"/>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
-      <c r="H323" s="10" t="s">
-        <v>10</v>
+      <c r="H323" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I323" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
-      <c r="A324" s="9">
+      <c r="A324" s="10">
         <v>16</v>
       </c>
-      <c r="B324" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C324" s="11" t="s">
-        <v>312</v>
+      <c r="B324" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>311</v>
       </c>
       <c r="D324" s="2"/>
-      <c r="E324" s="10" t="s">
-        <v>10</v>
+      <c r="E324" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -7250,14 +7229,14 @@
       <c r="I324" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
-      <c r="A325" s="9">
+      <c r="A325" s="10">
         <v>17</v>
       </c>
-      <c r="B325" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C325" s="11" t="s">
-        <v>313</v>
+      <c r="B325" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="4"/>
@@ -7267,14 +7246,14 @@
       <c r="I325" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
-      <c r="A326" s="9">
+      <c r="A326" s="10">
         <v>18</v>
       </c>
-      <c r="B326" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C326" s="11" t="s">
-        <v>314</v>
+      <c r="B326" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="4"/>
@@ -7284,9 +7263,9 @@
       <c r="I326" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
-      <c r="A327" s="2"/>
-      <c r="B327" s="7"/>
-      <c r="C327" s="7"/>
+      <c r="A327" s="6"/>
+      <c r="B327" s="8"/>
+      <c r="C327" s="8"/>
       <c r="D327" s="2"/>
       <c r="E327" s="4"/>
       <c r="F327" s="2"/>
@@ -7295,10 +7274,10 @@
       <c r="I327" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
-      <c r="A328" s="2"/>
-      <c r="B328" s="7"/>
-      <c r="C328" s="25" t="s">
-        <v>315</v>
+      <c r="A328" s="6"/>
+      <c r="B328" s="8"/>
+      <c r="C328" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="4"/>
@@ -7308,17 +7287,17 @@
       <c r="I328" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
-      <c r="A329" s="9">
+      <c r="A329" s="10">
         <v>1</v>
       </c>
-      <c r="B329" s="10" t="s">
+      <c r="B329" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C329" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="C329" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D329" s="10" t="s">
-        <v>10</v>
+      <c r="D329" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E329" s="4"/>
       <c r="F329" s="2"/>
@@ -7327,33 +7306,33 @@
       <c r="I329" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
-      <c r="A330" s="9">
+      <c r="A330" s="10">
         <v>2</v>
       </c>
-      <c r="B330" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C330" s="11" t="s">
-        <v>318</v>
+      <c r="B330" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="4"/>
       <c r="F330" s="2"/>
-      <c r="G330" s="10" t="s">
-        <v>10</v>
+      <c r="G330" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
-      <c r="A331" s="9">
+      <c r="A331" s="10">
         <v>3</v>
       </c>
-      <c r="B331" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C331" s="11" t="s">
-        <v>93</v>
+      <c r="B331" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C331" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="4"/>
@@ -7363,31 +7342,31 @@
       <c r="I331" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
-      <c r="A332" s="9">
+      <c r="A332" s="10">
         <v>4</v>
       </c>
-      <c r="B332" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C332" s="11" t="s">
-        <v>319</v>
+      <c r="B332" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C332" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="4"/>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
-      <c r="H332" s="10" t="s">
-        <v>10</v>
+      <c r="H332" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I332" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
-      <c r="A333" s="2"/>
+      <c r="A333" s="6"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
-      <c r="E333" s="10" t="s">
-        <v>10</v>
+      <c r="E333" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
